--- a/doc/examples/forecasting/forecast-method.xlsx
+++ b/doc/examples/forecasting/forecast-method.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-enterprise\doc\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\johan\workspace\frepple-community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242581B-AF9C-456B-A098-CECFF05DBB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -33,20 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">supplier!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="759">
   <si>
     <t>Name</t>
   </si>
@@ -2172,13 +2165,7 @@
     <t>Specifies how the sMAPE forecast error is weighted for different time buckets.</t>
   </si>
   <si>
-    <t>forecast.SortForecastEditorByName</t>
-  </si>
-  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Defines whether the sorting in Forecast Editor should be made by name. Default: false.</t>
   </si>
   <si>
     <t>inventoryplanning.average_window_duration</t>
@@ -2334,11 +2321,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2384,7 +2371,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="headerstyle" xfId="1"/>
+    <cellStyle name="headerstyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2684,25 +2671,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +2712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2748,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2794,7 +2781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2817,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2840,7 +2827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2863,7 +2850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2886,7 +2873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +2919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2955,7 +2942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2978,7 +2965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3001,7 +2988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3024,7 +3011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3047,7 +3034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3070,7 +3057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3093,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3116,7 +3103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3139,7 +3126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3162,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3185,7 +3172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3208,7 +3195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3231,7 +3218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3254,7 +3241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3277,7 +3264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3300,7 +3287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3323,7 +3310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3346,7 +3333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3369,7 +3356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3392,7 +3379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3415,7 +3402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3438,7 +3425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3461,7 +3448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3484,7 +3471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3507,7 +3494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3530,7 +3517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3553,7 +3540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3576,7 +3563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3599,7 +3586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3622,7 +3609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3645,7 +3632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3668,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3691,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3714,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3737,7 +3724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3760,7 +3747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3783,7 +3770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3806,7 +3793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3829,7 +3816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3852,7 +3839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3875,7 +3862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3898,7 +3885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3921,7 +3908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3944,7 +3931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3967,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3990,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4013,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4036,7 +4023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4059,7 +4046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4082,7 +4069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4105,7 +4092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4128,7 +4115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4151,7 +4138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4174,7 +4161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4197,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4220,7 +4207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4243,7 +4230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4266,7 +4253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4289,7 +4276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4312,7 +4299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4335,7 +4322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4358,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4381,7 +4368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4404,7 +4391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4427,7 +4414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4450,7 +4437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4473,7 +4460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4496,7 +4483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4519,7 +4506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4542,7 +4529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4565,7 +4552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4588,7 +4575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4611,7 +4598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4634,7 +4621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4657,7 +4644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4680,7 +4667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4703,7 +4690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4726,7 +4713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4749,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4772,7 +4759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4795,7 +4782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4818,7 +4805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4841,7 +4828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4864,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4887,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4910,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4933,7 +4920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -4956,7 +4943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4979,7 +4966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5002,7 +4989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5025,7 +5012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5048,7 +5035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5071,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5094,7 +5081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5117,7 +5104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5140,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5163,7 +5150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5186,7 +5173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5209,7 +5196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5232,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5255,7 +5242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5278,7 +5265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5301,7 +5288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5324,7 +5311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5347,7 +5334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5370,7 +5357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5393,7 +5380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5416,7 +5403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5439,7 +5426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5462,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5485,7 +5472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5508,7 +5495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -5531,7 +5518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -5554,7 +5541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5577,7 +5564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -5600,7 +5587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5623,7 +5610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5646,7 +5633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -5669,7 +5656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -5692,7 +5679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5715,7 +5702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -5738,7 +5725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -5761,7 +5748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -5784,7 +5771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -5807,7 +5794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -5830,7 +5817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -5853,7 +5840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -5876,7 +5863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -5899,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -5922,7 +5909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -5945,7 +5932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -5968,7 +5955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -5991,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -6014,7 +6001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6037,7 +6024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -6060,7 +6047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -6083,7 +6070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -6106,7 +6093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -6129,7 +6116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -6152,7 +6139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -6175,7 +6162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -6198,7 +6185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -6221,7 +6208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -6244,7 +6231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -6267,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -6290,7 +6277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -6313,7 +6300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -6336,7 +6323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -6359,7 +6346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -6382,7 +6369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -6405,7 +6392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -6428,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -6451,7 +6438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -6474,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -6497,7 +6484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6520,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6543,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6566,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6589,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -6612,7 +6599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -6635,7 +6622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -6658,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -6681,7 +6668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -6704,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6727,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6750,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6773,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6796,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6819,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6842,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6865,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -6888,7 +6875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -6911,7 +6898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>198</v>
       </c>
@@ -6934,7 +6921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>199</v>
       </c>
@@ -6957,7 +6944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -6980,7 +6967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>201</v>
       </c>
@@ -7003,7 +6990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -7026,7 +7013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>203</v>
       </c>
@@ -7049,7 +7036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -7072,7 +7059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -7095,7 +7082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>206</v>
       </c>
@@ -7118,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -7141,7 +7128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>208</v>
       </c>
@@ -7164,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -7187,7 +7174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>210</v>
       </c>
@@ -7210,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>211</v>
       </c>
@@ -7233,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -7256,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -7279,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -7302,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>215</v>
       </c>
@@ -7325,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -7348,7 +7335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -7371,7 +7358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>218</v>
       </c>
@@ -7394,7 +7381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>219</v>
       </c>
@@ -7417,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>220</v>
       </c>
@@ -7440,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>221</v>
       </c>
@@ -7463,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>222</v>
       </c>
@@ -7486,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>223</v>
       </c>
@@ -7509,7 +7496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>224</v>
       </c>
@@ -7532,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>225</v>
       </c>
@@ -7555,7 +7542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -7578,7 +7565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>227</v>
       </c>
@@ -7601,7 +7588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>228</v>
       </c>
@@ -7624,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>229</v>
       </c>
@@ -7647,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>230</v>
       </c>
@@ -7670,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>231</v>
       </c>
@@ -7693,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>232</v>
       </c>
@@ -7716,7 +7703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>233</v>
       </c>
@@ -7739,7 +7726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>234</v>
       </c>
@@ -7762,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>235</v>
       </c>
@@ -7785,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>236</v>
       </c>
@@ -7808,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>237</v>
       </c>
@@ -7831,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -7854,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -7877,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -7900,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>241</v>
       </c>
@@ -7923,7 +7910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>242</v>
       </c>
@@ -7946,7 +7933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>243</v>
       </c>
@@ -7969,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>244</v>
       </c>
@@ -7992,7 +7979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>245</v>
       </c>
@@ -8015,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>246</v>
       </c>
@@ -8038,7 +8025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>247</v>
       </c>
@@ -8061,7 +8048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>248</v>
       </c>
@@ -8084,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -8107,7 +8094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>250</v>
       </c>
@@ -8130,7 +8117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>251</v>
       </c>
@@ -8153,7 +8140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>252</v>
       </c>
@@ -8176,7 +8163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>253</v>
       </c>
@@ -8199,7 +8186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>254</v>
       </c>
@@ -8222,7 +8209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>255</v>
       </c>
@@ -8245,7 +8232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>256</v>
       </c>
@@ -8268,7 +8255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>257</v>
       </c>
@@ -8291,7 +8278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -8314,7 +8301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>259</v>
       </c>
@@ -8337,7 +8324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>260</v>
       </c>
@@ -8360,7 +8347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>261</v>
       </c>
@@ -8383,7 +8370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>262</v>
       </c>
@@ -8406,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>263</v>
       </c>
@@ -8429,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -8452,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>265</v>
       </c>
@@ -8475,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>266</v>
       </c>
@@ -8498,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -8521,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>268</v>
       </c>
@@ -8544,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -8567,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>270</v>
       </c>
@@ -8590,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>271</v>
       </c>
@@ -8613,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>272</v>
       </c>
@@ -8636,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>273</v>
       </c>
@@ -8659,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>274</v>
       </c>
@@ -8682,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -8705,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>276</v>
       </c>
@@ -8728,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>277</v>
       </c>
@@ -8751,7 +8738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -8774,7 +8761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -8797,7 +8784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>280</v>
       </c>
@@ -8820,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>281</v>
       </c>
@@ -8843,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>282</v>
       </c>
@@ -8866,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>283</v>
       </c>
@@ -8889,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>284</v>
       </c>
@@ -8912,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>285</v>
       </c>
@@ -8935,7 +8922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>286</v>
       </c>
@@ -8958,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>287</v>
       </c>
@@ -8981,7 +8968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>288</v>
       </c>
@@ -9004,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -9027,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>290</v>
       </c>
@@ -9050,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>291</v>
       </c>
@@ -9073,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>292</v>
       </c>
@@ -9096,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -9119,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>294</v>
       </c>
@@ -9142,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>295</v>
       </c>
@@ -9165,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -9188,7 +9175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -9211,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>298</v>
       </c>
@@ -9234,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -9257,7 +9244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>300</v>
       </c>
@@ -9280,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>301</v>
       </c>
@@ -9303,7 +9290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -9326,7 +9313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>303</v>
       </c>
@@ -9349,7 +9336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -9372,7 +9359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>305</v>
       </c>
@@ -9395,7 +9382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>306</v>
       </c>
@@ -9418,7 +9405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>307</v>
       </c>
@@ -9441,7 +9428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>308</v>
       </c>
@@ -9464,7 +9451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>309</v>
       </c>
@@ -9487,7 +9474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>310</v>
       </c>
@@ -9510,7 +9497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>311</v>
       </c>
@@ -9533,7 +9520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>312</v>
       </c>
@@ -9556,7 +9543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>313</v>
       </c>
@@ -9579,7 +9566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>314</v>
       </c>
@@ -9602,7 +9589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>315</v>
       </c>
@@ -9625,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>316</v>
       </c>
@@ -9648,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>317</v>
       </c>
@@ -9671,7 +9658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>318</v>
       </c>
@@ -9694,7 +9681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>319</v>
       </c>
@@ -9717,7 +9704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>320</v>
       </c>
@@ -9740,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -9763,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>322</v>
       </c>
@@ -9786,7 +9773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>323</v>
       </c>
@@ -9809,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>324</v>
       </c>
@@ -9832,7 +9819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>325</v>
       </c>
@@ -9855,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>326</v>
       </c>
@@ -9878,7 +9865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>327</v>
       </c>
@@ -9901,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>328</v>
       </c>
@@ -9924,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>329</v>
       </c>
@@ -9947,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -9970,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>331</v>
       </c>
@@ -9993,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>332</v>
       </c>
@@ -10016,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>333</v>
       </c>
@@ -10039,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>334</v>
       </c>
@@ -10062,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>335</v>
       </c>
@@ -10085,7 +10072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>336</v>
       </c>
@@ -10108,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>339</v>
       </c>
@@ -10131,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>340</v>
       </c>
@@ -10154,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>341</v>
       </c>
@@ -10177,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>342</v>
       </c>
@@ -10200,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>343</v>
       </c>
@@ -10223,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>344</v>
       </c>
@@ -10246,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>345</v>
       </c>
@@ -10269,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>346</v>
       </c>
@@ -10292,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>347</v>
       </c>
@@ -10315,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>348</v>
       </c>
@@ -10338,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>349</v>
       </c>
@@ -10361,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>350</v>
       </c>
@@ -10384,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>351</v>
       </c>
@@ -10407,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>352</v>
       </c>
@@ -10430,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>353</v>
       </c>
@@ -10453,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>354</v>
       </c>
@@ -10476,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>355</v>
       </c>
@@ -10499,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>356</v>
       </c>
@@ -10522,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>357</v>
       </c>
@@ -10545,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>358</v>
       </c>
@@ -10568,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>359</v>
       </c>
@@ -10591,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>360</v>
       </c>
@@ -10614,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>361</v>
       </c>
@@ -10637,7 +10624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>362</v>
       </c>
@@ -10660,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>363</v>
       </c>
@@ -10683,7 +10670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>364</v>
       </c>
@@ -10706,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>365</v>
       </c>
@@ -10729,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>366</v>
       </c>
@@ -10752,7 +10739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>367</v>
       </c>
@@ -10775,7 +10762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>368</v>
       </c>
@@ -10798,7 +10785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>369</v>
       </c>
@@ -10821,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>370</v>
       </c>
@@ -10844,7 +10831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>371</v>
       </c>
@@ -10867,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>372</v>
       </c>
@@ -10890,7 +10877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>373</v>
       </c>
@@ -10913,7 +10900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>374</v>
       </c>
@@ -10936,7 +10923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>375</v>
       </c>
@@ -10959,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>376</v>
       </c>
@@ -10982,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -11005,7 +10992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -11028,7 +11015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>379</v>
       </c>
@@ -11051,7 +11038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>380</v>
       </c>
@@ -11074,7 +11061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>381</v>
       </c>
@@ -11097,7 +11084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>382</v>
       </c>
@@ -11120,7 +11107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>383</v>
       </c>
@@ -11143,7 +11130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>384</v>
       </c>
@@ -11166,7 +11153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>385</v>
       </c>
@@ -11189,7 +11176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>386</v>
       </c>
@@ -11212,7 +11199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>387</v>
       </c>
@@ -11235,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>388</v>
       </c>
@@ -11258,7 +11245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>389</v>
       </c>
@@ -11281,7 +11268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>390</v>
       </c>
@@ -11304,7 +11291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>391</v>
       </c>
@@ -11327,7 +11314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>392</v>
       </c>
@@ -11350,7 +11337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>393</v>
       </c>
@@ -11373,7 +11360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>394</v>
       </c>
@@ -11396,7 +11383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>395</v>
       </c>
@@ -11419,7 +11406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>396</v>
       </c>
@@ -11442,7 +11429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>397</v>
       </c>
@@ -11465,7 +11452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>398</v>
       </c>
@@ -11488,7 +11475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>399</v>
       </c>
@@ -11511,7 +11498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>400</v>
       </c>
@@ -11534,7 +11521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>401</v>
       </c>
@@ -11557,7 +11544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>402</v>
       </c>
@@ -11580,7 +11567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>403</v>
       </c>
@@ -11603,7 +11590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>404</v>
       </c>
@@ -11626,7 +11613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>405</v>
       </c>
@@ -11649,7 +11636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>406</v>
       </c>
@@ -11672,7 +11659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>407</v>
       </c>
@@ -11695,7 +11682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>408</v>
       </c>
@@ -11718,7 +11705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>409</v>
       </c>
@@ -11741,7 +11728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>410</v>
       </c>
@@ -11764,7 +11751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>411</v>
       </c>
@@ -11787,7 +11774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>412</v>
       </c>
@@ -11810,7 +11797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>413</v>
       </c>
@@ -11833,7 +11820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>414</v>
       </c>
@@ -11856,7 +11843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>415</v>
       </c>
@@ -11879,7 +11866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>416</v>
       </c>
@@ -11902,7 +11889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>417</v>
       </c>
@@ -11925,7 +11912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>418</v>
       </c>
@@ -11948,7 +11935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>419</v>
       </c>
@@ -11971,7 +11958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>420</v>
       </c>
@@ -11994,7 +11981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>421</v>
       </c>
@@ -12017,7 +12004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>422</v>
       </c>
@@ -12040,7 +12027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>423</v>
       </c>
@@ -12063,7 +12050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>424</v>
       </c>
@@ -12086,7 +12073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>425</v>
       </c>
@@ -12109,7 +12096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>426</v>
       </c>
@@ -12132,7 +12119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>427</v>
       </c>
@@ -12155,7 +12142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>428</v>
       </c>
@@ -12178,7 +12165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>429</v>
       </c>
@@ -12201,7 +12188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>430</v>
       </c>
@@ -12224,7 +12211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>431</v>
       </c>
@@ -12247,7 +12234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>432</v>
       </c>
@@ -12270,7 +12257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>433</v>
       </c>
@@ -12293,7 +12280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>434</v>
       </c>
@@ -12316,7 +12303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>435</v>
       </c>
@@ -12339,7 +12326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>436</v>
       </c>
@@ -12362,7 +12349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>437</v>
       </c>
@@ -12385,7 +12372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>438</v>
       </c>
@@ -12408,7 +12395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>439</v>
       </c>
@@ -12431,7 +12418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>440</v>
       </c>
@@ -12454,7 +12441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>441</v>
       </c>
@@ -12477,7 +12464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>442</v>
       </c>
@@ -12500,7 +12487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>443</v>
       </c>
@@ -12523,7 +12510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>444</v>
       </c>
@@ -12546,7 +12533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>445</v>
       </c>
@@ -12569,7 +12556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>446</v>
       </c>
@@ -12592,7 +12579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>447</v>
       </c>
@@ -12615,7 +12602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>448</v>
       </c>
@@ -12638,7 +12625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>449</v>
       </c>
@@ -12661,7 +12648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>450</v>
       </c>
@@ -12684,7 +12671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>451</v>
       </c>
@@ -12707,7 +12694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>452</v>
       </c>
@@ -12730,7 +12717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>453</v>
       </c>
@@ -12753,7 +12740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>454</v>
       </c>
@@ -12776,7 +12763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>455</v>
       </c>
@@ -12799,7 +12786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>456</v>
       </c>
@@ -12822,7 +12809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>457</v>
       </c>
@@ -12845,7 +12832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>458</v>
       </c>
@@ -12868,7 +12855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>459</v>
       </c>
@@ -12891,7 +12878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>460</v>
       </c>
@@ -12914,7 +12901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>461</v>
       </c>
@@ -12937,7 +12924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>462</v>
       </c>
@@ -12960,7 +12947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>463</v>
       </c>
@@ -12983,7 +12970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>464</v>
       </c>
@@ -13006,7 +12993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>465</v>
       </c>
@@ -13029,7 +13016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>466</v>
       </c>
@@ -13052,7 +13039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>467</v>
       </c>
@@ -13075,7 +13062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>468</v>
       </c>
@@ -13098,7 +13085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>469</v>
       </c>
@@ -13121,7 +13108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>470</v>
       </c>
@@ -13144,7 +13131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>471</v>
       </c>
@@ -13167,7 +13154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>472</v>
       </c>
@@ -13190,7 +13177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>473</v>
       </c>
@@ -13213,7 +13200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>474</v>
       </c>
@@ -13236,7 +13223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>475</v>
       </c>
@@ -13259,7 +13246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>476</v>
       </c>
@@ -13282,7 +13269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>477</v>
       </c>
@@ -13305,7 +13292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>478</v>
       </c>
@@ -13328,7 +13315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>479</v>
       </c>
@@ -13351,7 +13338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>480</v>
       </c>
@@ -13374,7 +13361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>481</v>
       </c>
@@ -13397,7 +13384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>482</v>
       </c>
@@ -13420,7 +13407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>483</v>
       </c>
@@ -13443,7 +13430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>484</v>
       </c>
@@ -13466,7 +13453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>485</v>
       </c>
@@ -13489,7 +13476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>486</v>
       </c>
@@ -13512,7 +13499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>487</v>
       </c>
@@ -13535,7 +13522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>488</v>
       </c>
@@ -13558,7 +13545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>489</v>
       </c>
@@ -13581,7 +13568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>490</v>
       </c>
@@ -13604,7 +13591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>491</v>
       </c>
@@ -13627,7 +13614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>492</v>
       </c>
@@ -13650,7 +13637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>493</v>
       </c>
@@ -13673,7 +13660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>494</v>
       </c>
@@ -13696,7 +13683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>495</v>
       </c>
@@ -13719,7 +13706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>496</v>
       </c>
@@ -13742,7 +13729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>497</v>
       </c>
@@ -13765,7 +13752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>498</v>
       </c>
@@ -13788,7 +13775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>500</v>
       </c>
@@ -13811,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>501</v>
       </c>
@@ -13834,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>502</v>
       </c>
@@ -13857,7 +13844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>503</v>
       </c>
@@ -13880,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>504</v>
       </c>
@@ -13903,7 +13890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>505</v>
       </c>
@@ -13926,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>506</v>
       </c>
@@ -13949,7 +13936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>507</v>
       </c>
@@ -13972,7 +13959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>508</v>
       </c>
@@ -13995,7 +13982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>509</v>
       </c>
@@ -14018,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>510</v>
       </c>
@@ -14041,7 +14028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>511</v>
       </c>
@@ -14064,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>512</v>
       </c>
@@ -14087,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>513</v>
       </c>
@@ -14110,7 +14097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>514</v>
       </c>
@@ -14133,7 +14120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>515</v>
       </c>
@@ -14156,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>516</v>
       </c>
@@ -14179,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>517</v>
       </c>
@@ -14202,7 +14189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>518</v>
       </c>
@@ -14225,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>519</v>
       </c>
@@ -14248,7 +14235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>520</v>
       </c>
@@ -14271,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>521</v>
       </c>
@@ -14294,7 +14281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>522</v>
       </c>
@@ -14317,7 +14304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>523</v>
       </c>
@@ -14340,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>524</v>
       </c>
@@ -14363,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>525</v>
       </c>
@@ -14386,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>526</v>
       </c>
@@ -14409,7 +14396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>527</v>
       </c>
@@ -14432,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>528</v>
       </c>
@@ -14455,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>529</v>
       </c>
@@ -14478,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>530</v>
       </c>
@@ -14501,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>531</v>
       </c>
@@ -14524,7 +14511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>532</v>
       </c>
@@ -14547,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>533</v>
       </c>
@@ -14570,7 +14557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>534</v>
       </c>
@@ -14593,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>535</v>
       </c>
@@ -14616,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>536</v>
       </c>
@@ -14639,7 +14626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>537</v>
       </c>
@@ -14662,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>538</v>
       </c>
@@ -14685,7 +14672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>539</v>
       </c>
@@ -14708,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>540</v>
       </c>
@@ -14731,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>541</v>
       </c>
@@ -14754,7 +14741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>542</v>
       </c>
@@ -14777,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>543</v>
       </c>
@@ -14800,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>544</v>
       </c>
@@ -14823,7 +14810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>545</v>
       </c>
@@ -14846,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>546</v>
       </c>
@@ -14869,7 +14856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>547</v>
       </c>
@@ -14892,7 +14879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>548</v>
       </c>
@@ -14915,7 +14902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>549</v>
       </c>
@@ -14938,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>550</v>
       </c>
@@ -14961,7 +14948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>551</v>
       </c>
@@ -14984,7 +14971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>552</v>
       </c>
@@ -15007,7 +14994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>553</v>
       </c>
@@ -15030,7 +15017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>554</v>
       </c>
@@ -15053,7 +15040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>555</v>
       </c>
@@ -15076,7 +15063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>556</v>
       </c>
@@ -15099,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>557</v>
       </c>
@@ -15122,7 +15109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>558</v>
       </c>
@@ -15145,7 +15132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>559</v>
       </c>
@@ -15168,7 +15155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>560</v>
       </c>
@@ -15191,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>561</v>
       </c>
@@ -15214,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>562</v>
       </c>
@@ -15237,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>563</v>
       </c>
@@ -15260,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>564</v>
       </c>
@@ -15283,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>565</v>
       </c>
@@ -15306,7 +15293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>566</v>
       </c>
@@ -15329,7 +15316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>567</v>
       </c>
@@ -15353,29 +15340,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1048576"/>
+  <autoFilter ref="A1:G1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15392,7 +15379,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>569</v>
       </c>
@@ -15400,7 +15387,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>571</v>
       </c>
@@ -15411,7 +15398,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>572</v>
       </c>
@@ -15422,7 +15409,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15439,7 +15426,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -15456,7 +15443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15473,7 +15460,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>499</v>
       </c>
@@ -15491,27 +15478,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1048576"/>
+  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15522,7 +15509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>578</v>
       </c>
@@ -15530,7 +15517,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>580</v>
       </c>
@@ -15541,7 +15528,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -15552,7 +15539,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -15564,56 +15551,56 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576"/>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.9296875" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15636,7 +15623,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>586</v>
       </c>
@@ -15659,7 +15646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>588</v>
       </c>
@@ -15682,7 +15669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>589</v>
       </c>
@@ -15705,7 +15692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>590</v>
       </c>
@@ -15729,28 +15716,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1048576"/>
+  <autoFilter ref="A1:G1048576" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15764,7 +15751,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15775,10 +15762,10 @@
         <v>580</v>
       </c>
       <c r="D2">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -15789,10 +15776,10 @@
         <v>580</v>
       </c>
       <c r="D3">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -15803,10 +15790,10 @@
         <v>580</v>
       </c>
       <c r="D4">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>499</v>
       </c>
@@ -15817,10 +15804,10 @@
         <v>580</v>
       </c>
       <c r="D5">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -15831,10 +15818,10 @@
         <v>580</v>
       </c>
       <c r="D6">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15845,10 +15832,10 @@
         <v>580</v>
       </c>
       <c r="D7">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -15859,10 +15846,10 @@
         <v>580</v>
       </c>
       <c r="D8">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>499</v>
       </c>
@@ -15873,29 +15860,29 @@
         <v>580</v>
       </c>
       <c r="D9">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1048576"/>
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15903,7 +15890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>595</v>
       </c>
@@ -15911,7 +15898,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -15920,32 +15907,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1048576"/>
+  <autoFilter ref="A1:B1048576" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15971,7 +15958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15982,7 +15969,7 @@
         <v>596</v>
       </c>
       <c r="D2">
-        <v>604800</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -15997,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -16008,7 +15995,7 @@
         <v>595</v>
       </c>
       <c r="D3">
-        <v>864000</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -16020,7 +16007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -16031,7 +16018,7 @@
         <v>596</v>
       </c>
       <c r="D4">
-        <v>1814400</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -16043,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -16054,7 +16041,7 @@
         <v>596</v>
       </c>
       <c r="D5">
-        <v>1296000</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -16070,27 +16057,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1048576"/>
+  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="182.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16101,7 +16088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>599</v>
       </c>
@@ -16112,7 +16099,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>602</v>
       </c>
@@ -16123,7 +16110,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>605</v>
       </c>
@@ -16134,7 +16121,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>607</v>
       </c>
@@ -16145,7 +16132,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>610</v>
       </c>
@@ -16156,7 +16143,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>613</v>
       </c>
@@ -16167,7 +16154,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>616</v>
       </c>
@@ -16178,7 +16165,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>619</v>
       </c>
@@ -16189,7 +16176,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>622</v>
       </c>
@@ -16200,7 +16187,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>625</v>
       </c>
@@ -16211,7 +16198,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>628</v>
       </c>
@@ -16222,7 +16209,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>631</v>
       </c>
@@ -16233,7 +16220,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>633</v>
       </c>
@@ -16244,7 +16231,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>635</v>
       </c>
@@ -16255,7 +16242,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>637</v>
       </c>
@@ -16266,7 +16253,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>640</v>
       </c>
@@ -16277,7 +16264,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>643</v>
       </c>
@@ -16288,7 +16275,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>646</v>
       </c>
@@ -16299,7 +16286,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>648</v>
       </c>
@@ -16310,7 +16297,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>651</v>
       </c>
@@ -16321,7 +16308,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>654</v>
       </c>
@@ -16332,7 +16319,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>657</v>
       </c>
@@ -16343,7 +16330,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>660</v>
       </c>
@@ -16354,7 +16341,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>663</v>
       </c>
@@ -16365,7 +16352,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>665</v>
       </c>
@@ -16376,7 +16363,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>667</v>
       </c>
@@ -16387,7 +16374,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>669</v>
       </c>
@@ -16398,7 +16385,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>672</v>
       </c>
@@ -16409,7 +16396,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>674</v>
       </c>
@@ -16420,7 +16407,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>676</v>
       </c>
@@ -16431,7 +16418,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>678</v>
       </c>
@@ -16442,7 +16429,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>680</v>
       </c>
@@ -16453,7 +16440,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>682</v>
       </c>
@@ -16464,7 +16451,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>684</v>
       </c>
@@ -16475,7 +16462,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>687</v>
       </c>
@@ -16486,7 +16473,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>689</v>
       </c>
@@ -16497,7 +16484,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>692</v>
       </c>
@@ -16508,7 +16495,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>694</v>
       </c>
@@ -16519,7 +16506,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>697</v>
       </c>
@@ -16530,7 +16517,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>698</v>
       </c>
@@ -16541,7 +16528,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>701</v>
       </c>
@@ -16552,7 +16539,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>702</v>
       </c>
@@ -16563,7 +16550,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>703</v>
       </c>
@@ -16574,7 +16561,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>704</v>
       </c>
@@ -16585,7 +16572,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>706</v>
       </c>
@@ -16596,73 +16583,73 @@
         <v>707</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B47" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C47" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B48" t="s">
-        <v>712</v>
+        <v>608</v>
       </c>
       <c r="C48" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>714</v>
       </c>
       <c r="B49" t="s">
-        <v>608</v>
+        <v>715</v>
       </c>
       <c r="C49" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B50" t="s">
-        <v>717</v>
+        <v>641</v>
       </c>
       <c r="C50" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>719</v>
       </c>
       <c r="B51" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="C51" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>721</v>
       </c>
       <c r="B52" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C52" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>723</v>
       </c>
@@ -16673,150 +16660,150 @@
         <v>724</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>725</v>
       </c>
       <c r="B54" t="s">
-        <v>655</v>
+        <v>726</v>
       </c>
       <c r="C54" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B55" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C55" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B56" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C56" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B57" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="C57" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>736</v>
       </c>
       <c r="B58" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="C58" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B59" t="s">
-        <v>739</v>
+        <v>655</v>
       </c>
       <c r="C59" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>741</v>
       </c>
       <c r="B60" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="C60" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B61" t="s">
-        <v>744</v>
+        <v>608</v>
       </c>
       <c r="C61" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>746</v>
       </c>
       <c r="B62" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="C62" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>748</v>
       </c>
       <c r="B63" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="C63" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>750</v>
       </c>
       <c r="B64" t="s">
-        <v>709</v>
+        <v>600</v>
       </c>
       <c r="C64" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>752</v>
       </c>
       <c r="B65" t="s">
+        <v>753</v>
+      </c>
+      <c r="C65" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>755</v>
+      </c>
+      <c r="B66" t="s">
         <v>600</v>
-      </c>
-      <c r="C65" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>754</v>
-      </c>
-      <c r="B66" t="s">
-        <v>755</v>
       </c>
       <c r="C66" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>757</v>
       </c>
@@ -16827,19 +16814,8 @@
         <v>758</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>759</v>
-      </c>
-      <c r="B68" t="s">
-        <v>600</v>
-      </c>
-      <c r="C68" t="s">
-        <v>760</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048574"/>
+  <autoFilter ref="A1:C1048573" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/doc/examples/forecasting/forecast-method.xlsx
+++ b/doc/examples/forecasting/forecast-method.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\johan\workspace\frepple-community\doc\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242581B-AF9C-456B-A098-CECFF05DBB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89101FCE-D330-47B5-BDBF-42DB07A30320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">supplier!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="764">
   <si>
     <t>Name</t>
   </si>
@@ -2165,9 +2165,15 @@
     <t>Specifies how the sMAPE forecast error is weighted for different time buckets.</t>
   </si>
   <si>
+    <t>forecast.SortForecastEditorByName</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
+    <t>Defines whether the sorting in Forecast Editor should be made by name. Default: false.</t>
+  </si>
+  <si>
     <t>inventoryplanning.average_window_duration</t>
   </si>
   <si>
@@ -2316,6 +2322,15 @@
   </si>
   <si>
     <t>Determines whether confirmed manufacturing orders consume material or not. Default is true.</t>
+  </si>
+  <si>
+    <t>excel_duration_in_days</t>
+  </si>
+  <si>
+    <t>Determines whether numbers in duration fields in spreadsheets are considered as days or seconds. Default is true (for days).</t>
+  </si>
+  <si>
+    <t>2021/11/29</t>
   </si>
 </sst>
 </file>
@@ -2368,7 +2383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="headerstyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -15726,13 +15741,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E1" sqref="E1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -15762,7 +15777,7 @@
         <v>580</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15776,7 +15791,7 @@
         <v>580</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -15790,7 +15805,7 @@
         <v>580</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15804,7 +15819,7 @@
         <v>580</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15818,7 +15833,7 @@
         <v>580</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15832,7 +15847,7 @@
         <v>580</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -15846,7 +15861,7 @@
         <v>580</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -15860,7 +15875,7 @@
         <v>580</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>259200</v>
       </c>
     </row>
   </sheetData>
@@ -15917,7 +15932,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15925,7 +15940,7 @@
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -15969,7 +15984,7 @@
         <v>596</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>604800</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -15995,7 +16010,7 @@
         <v>595</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>864000</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -16018,7 +16033,7 @@
         <v>596</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>1814400</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -16041,7 +16056,7 @@
         <v>596</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>1296000</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -16064,10 +16079,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16114,8 +16129,8 @@
       <c r="A4" t="s">
         <v>605</v>
       </c>
-      <c r="B4" s="3">
-        <v>44529</v>
+      <c r="B4" s="3" t="s">
+        <v>763</v>
       </c>
       <c r="C4" t="s">
         <v>606</v>
@@ -16123,699 +16138,721 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B5" t="s">
-        <v>608</v>
+        <v>761</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B8" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C8" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B9" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B13" t="s">
         <v>629</v>
       </c>
       <c r="C13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B14" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B15" t="s">
         <v>614</v>
       </c>
       <c r="C15" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B16" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="C16" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B17" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C17" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B18" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C18" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B19" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="C19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B20" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="C20" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B22" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B24" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C24" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B25" t="s">
         <v>661</v>
       </c>
       <c r="C25" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B26" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C26" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B27" t="s">
         <v>655</v>
       </c>
       <c r="C27" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B28" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B30" t="s">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B31" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="C31" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B32" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="C32" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B33" t="s">
         <v>629</v>
       </c>
       <c r="C33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B34" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="C34" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B35" t="s">
-        <v>685</v>
+        <v>614</v>
       </c>
       <c r="C35" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B36" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="C36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B37" t="s">
-        <v>690</v>
+        <v>614</v>
       </c>
       <c r="C37" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B38" t="s">
-        <v>638</v>
+        <v>690</v>
       </c>
       <c r="C38" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B39" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="C39" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B40" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="C40" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B41" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
       <c r="C41" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B42" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
       <c r="C42" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B43" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="C43" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B44" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C44" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B45" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="C45" t="s">
-        <v>705</v>
+        <v>639</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B46" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C46" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B47" t="s">
-        <v>710</v>
+        <v>626</v>
       </c>
       <c r="C47" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B48" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="C48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B49" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C49" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B50" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="C50" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B51" t="s">
-        <v>623</v>
+        <v>717</v>
       </c>
       <c r="C51" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B52" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="C52" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B53" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="C53" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B54" t="s">
-        <v>726</v>
+        <v>655</v>
       </c>
       <c r="C54" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B55" t="s">
-        <v>729</v>
+        <v>655</v>
       </c>
       <c r="C55" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B56" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C56" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B57" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="C57" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B58" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C58" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B59" t="s">
-        <v>655</v>
+        <v>709</v>
       </c>
       <c r="C59" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B60" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C60" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B61" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="C61" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B62" t="s">
-        <v>655</v>
+        <v>744</v>
       </c>
       <c r="C62" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B63" t="s">
-        <v>708</v>
+        <v>608</v>
       </c>
       <c r="C63" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B64" t="s">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="C64" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B65" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
       <c r="C65" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B66" t="s">
         <v>600</v>
       </c>
       <c r="C66" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>754</v>
+      </c>
+      <c r="B67" t="s">
+        <v>755</v>
+      </c>
+      <c r="C67" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>757</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>600</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>758</v>
       </c>
     </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>759</v>
+      </c>
+      <c r="B69" t="s">
+        <v>600</v>
+      </c>
+      <c r="C69" t="s">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048573" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/doc/examples/forecasting/forecast-method.xlsx
+++ b/doc/examples/forecasting/forecast-method.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\johan\workspace\frepple-community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89101FCE-D330-47B5-BDBF-42DB07A30320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31EF00-4466-4697-92D8-204FB2EC31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">supplier!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="762">
   <si>
     <t>Name</t>
   </si>
@@ -2165,13 +2165,7 @@
     <t>Specifies how the sMAPE forecast error is weighted for different time buckets.</t>
   </si>
   <si>
-    <t>forecast.SortForecastEditorByName</t>
-  </si>
-  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Defines whether the sorting in Forecast Editor should be made by name. Default: false.</t>
   </si>
   <si>
     <t>inventoryplanning.average_window_duration</t>
@@ -15741,7 +15735,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15777,7 +15771,7 @@
         <v>580</v>
       </c>
       <c r="D2">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15791,7 +15785,7 @@
         <v>580</v>
       </c>
       <c r="D3">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -15805,7 +15799,7 @@
         <v>580</v>
       </c>
       <c r="D4">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15819,7 +15813,7 @@
         <v>580</v>
       </c>
       <c r="D5">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15833,7 +15827,7 @@
         <v>580</v>
       </c>
       <c r="D6">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15847,7 +15841,7 @@
         <v>580</v>
       </c>
       <c r="D7">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -15861,7 +15855,7 @@
         <v>580</v>
       </c>
       <c r="D8">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -15875,7 +15869,7 @@
         <v>580</v>
       </c>
       <c r="D9">
-        <v>259200</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -15932,7 +15926,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15984,7 +15978,7 @@
         <v>596</v>
       </c>
       <c r="D2">
-        <v>604800</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -16010,7 +16004,7 @@
         <v>595</v>
       </c>
       <c r="D3">
-        <v>864000</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -16033,7 +16027,7 @@
         <v>596</v>
       </c>
       <c r="D4">
-        <v>1814400</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -16056,7 +16050,7 @@
         <v>596</v>
       </c>
       <c r="D5">
-        <v>1296000</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -16079,10 +16073,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16130,7 +16124,7 @@
         <v>605</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C4" t="s">
         <v>606</v>
@@ -16138,13 +16132,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -16611,21 +16605,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B48" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C48" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B49" t="s">
-        <v>712</v>
+        <v>608</v>
       </c>
       <c r="C49" t="s">
         <v>713</v>
@@ -16636,18 +16630,18 @@
         <v>714</v>
       </c>
       <c r="B50" t="s">
-        <v>608</v>
+        <v>715</v>
       </c>
       <c r="C50" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B51" t="s">
-        <v>717</v>
+        <v>641</v>
       </c>
       <c r="C51" t="s">
         <v>718</v>
@@ -16658,7 +16652,7 @@
         <v>719</v>
       </c>
       <c r="B52" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="C52" t="s">
         <v>720</v>
@@ -16669,7 +16663,7 @@
         <v>721</v>
       </c>
       <c r="B53" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C53" t="s">
         <v>722</v>
@@ -16691,40 +16685,40 @@
         <v>725</v>
       </c>
       <c r="B55" t="s">
-        <v>655</v>
+        <v>726</v>
       </c>
       <c r="C55" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B56" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C56" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B57" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C57" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B58" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="C58" t="s">
         <v>735</v>
@@ -16735,18 +16729,18 @@
         <v>736</v>
       </c>
       <c r="B59" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="C59" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B60" t="s">
-        <v>739</v>
+        <v>655</v>
       </c>
       <c r="C60" t="s">
         <v>740</v>
@@ -16757,18 +16751,18 @@
         <v>741</v>
       </c>
       <c r="B61" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="C61" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B62" t="s">
-        <v>744</v>
+        <v>608</v>
       </c>
       <c r="C62" t="s">
         <v>745</v>
@@ -16779,7 +16773,7 @@
         <v>746</v>
       </c>
       <c r="B63" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="C63" t="s">
         <v>747</v>
@@ -16790,7 +16784,7 @@
         <v>748</v>
       </c>
       <c r="B64" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="C64" t="s">
         <v>749</v>
@@ -16801,7 +16795,7 @@
         <v>750</v>
       </c>
       <c r="B65" t="s">
-        <v>709</v>
+        <v>600</v>
       </c>
       <c r="C65" t="s">
         <v>751</v>
@@ -16812,18 +16806,18 @@
         <v>752</v>
       </c>
       <c r="B66" t="s">
-        <v>600</v>
+        <v>753</v>
       </c>
       <c r="C66" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B67" t="s">
-        <v>755</v>
+        <v>600</v>
       </c>
       <c r="C67" t="s">
         <v>756</v>
@@ -16840,19 +16834,8 @@
         <v>758</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>759</v>
-      </c>
-      <c r="B69" t="s">
-        <v>600</v>
-      </c>
-      <c r="C69" t="s">
-        <v>760</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:C1048574" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/doc/examples/forecasting/forecast-method.xlsx
+++ b/doc/examples/forecasting/forecast-method.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\johan\workspace\frepple-community\doc\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\hlahlou\community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31EF00-4466-4697-92D8-204FB2EC31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDAD96-E2A4-4E1B-A78B-65CA8A8BA5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">supplier!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="763">
   <si>
     <t>Name</t>
   </si>
@@ -2325,6 +2325,9 @@
   </si>
   <si>
     <t>2021/11/29</t>
+  </si>
+  <si>
+    <t>forecast.currentdate</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2684,10 +2687,10 @@
   <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -2698,7 +2701,7 @@
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4331,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -4998,7 +5001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -5803,7 +5806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -6079,7 +6082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6861,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>198</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>199</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>201</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>203</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>206</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>208</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>210</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>211</v>
       </c>
@@ -7229,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>215</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>218</v>
       </c>
@@ -7390,7 +7393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>219</v>
       </c>
@@ -7413,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>220</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>221</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>222</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>223</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>224</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>225</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>227</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>228</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>229</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>230</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>231</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>232</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>233</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>234</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>235</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>236</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>237</v>
       </c>
@@ -7827,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -7873,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -7896,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>241</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>242</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>243</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>244</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>245</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>246</v>
       </c>
@@ -8034,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>247</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>248</v>
       </c>
@@ -8080,7 +8083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>250</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>251</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>252</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>253</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>254</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>255</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>256</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>257</v>
       </c>
@@ -8287,7 +8290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -8310,7 +8313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>259</v>
       </c>
@@ -8333,7 +8336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>260</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>261</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>262</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>263</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>265</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>266</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>268</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -8563,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>270</v>
       </c>
@@ -8586,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>271</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>272</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>273</v>
       </c>
@@ -8655,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>274</v>
       </c>
@@ -8678,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -8701,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>276</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>277</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>280</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>281</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>282</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>283</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>284</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>285</v>
       </c>
@@ -8931,7 +8934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>286</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>287</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>288</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -9023,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>290</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>291</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>292</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>294</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>295</v>
       </c>
@@ -9161,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>298</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>300</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>301</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>303</v>
       </c>
@@ -9345,7 +9348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>305</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>306</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>307</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>308</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>309</v>
       </c>
@@ -9483,7 +9486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>310</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>311</v>
       </c>
@@ -9529,7 +9532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>312</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>313</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>314</v>
       </c>
@@ -9598,7 +9601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>315</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>316</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>317</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>318</v>
       </c>
@@ -9690,7 +9693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>319</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>320</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>322</v>
       </c>
@@ -9782,7 +9785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>323</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>324</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>325</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>326</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>327</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>328</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>329</v>
       </c>
@@ -9943,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>331</v>
       </c>
@@ -9989,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>332</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>333</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>334</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>335</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>336</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>339</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>340</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>341</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>342</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>343</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>344</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
         <v>345</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>346</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>347</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>348</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>349</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>350</v>
       </c>
@@ -10380,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>351</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>352</v>
       </c>
@@ -10426,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>353</v>
       </c>
@@ -10449,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>354</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>355</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>356</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>357</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>358</v>
       </c>
@@ -10564,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>359</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>360</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>361</v>
       </c>
@@ -10633,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>362</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>363</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>364</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>365</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>366</v>
       </c>
@@ -10748,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>367</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>368</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>369</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>370</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
         <v>371</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
         <v>372</v>
       </c>
@@ -10886,7 +10889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>373</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>374</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>375</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>376</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>379</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>380</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>381</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>382</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>383</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>384</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>385</v>
       </c>
@@ -11185,7 +11188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>386</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>387</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>388</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>389</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>390</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>391</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>392</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>393</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>394</v>
       </c>
@@ -11392,7 +11395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>395</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>396</v>
       </c>
@@ -11438,7 +11441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>397</v>
       </c>
@@ -11461,7 +11464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>398</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>399</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>400</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>401</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>402</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7">
       <c r="A387" t="s">
         <v>403</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7">
       <c r="A388" t="s">
         <v>404</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>405</v>
       </c>
@@ -11645,7 +11648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>406</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
         <v>407</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
         <v>408</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7">
       <c r="A393" t="s">
         <v>409</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
         <v>410</v>
       </c>
@@ -11760,7 +11763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
         <v>411</v>
       </c>
@@ -11783,7 +11786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>412</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>413</v>
       </c>
@@ -11829,7 +11832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>414</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>415</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>416</v>
       </c>
@@ -11898,7 +11901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>417</v>
       </c>
@@ -11921,7 +11924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
         <v>418</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>419</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>420</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>421</v>
       </c>
@@ -12013,7 +12016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>422</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>423</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>424</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>425</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>426</v>
       </c>
@@ -12128,7 +12131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>427</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>428</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>429</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>430</v>
       </c>
@@ -12220,7 +12223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>431</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>432</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>433</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>434</v>
       </c>
@@ -12312,7 +12315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7">
       <c r="A419" t="s">
         <v>435</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7">
       <c r="A420" t="s">
         <v>436</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>437</v>
       </c>
@@ -12381,7 +12384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>438</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>439</v>
       </c>
@@ -12427,7 +12430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>440</v>
       </c>
@@ -12450,7 +12453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7">
       <c r="A425" t="s">
         <v>441</v>
       </c>
@@ -12473,7 +12476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>442</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>443</v>
       </c>
@@ -12519,7 +12522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>444</v>
       </c>
@@ -12542,7 +12545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>445</v>
       </c>
@@ -12565,7 +12568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>446</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>447</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>448</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>449</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>450</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>451</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>452</v>
       </c>
@@ -12726,7 +12729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>453</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>454</v>
       </c>
@@ -12772,7 +12775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>455</v>
       </c>
@@ -12795,7 +12798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>456</v>
       </c>
@@ -12818,7 +12821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>457</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>458</v>
       </c>
@@ -12864,7 +12867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>459</v>
       </c>
@@ -12887,7 +12890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>460</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>461</v>
       </c>
@@ -12933,7 +12936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>462</v>
       </c>
@@ -12956,7 +12959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>463</v>
       </c>
@@ -12979,7 +12982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
         <v>464</v>
       </c>
@@ -13002,7 +13005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7">
       <c r="A449" t="s">
         <v>465</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7">
       <c r="A450" t="s">
         <v>466</v>
       </c>
@@ -13048,7 +13051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7">
       <c r="A451" t="s">
         <v>467</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7">
       <c r="A452" t="s">
         <v>468</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7">
       <c r="A453" t="s">
         <v>469</v>
       </c>
@@ -13117,7 +13120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7">
       <c r="A454" t="s">
         <v>470</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7">
       <c r="A455" t="s">
         <v>471</v>
       </c>
@@ -13163,7 +13166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7">
       <c r="A456" t="s">
         <v>472</v>
       </c>
@@ -13186,7 +13189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7">
       <c r="A457" t="s">
         <v>473</v>
       </c>
@@ -13209,7 +13212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7">
       <c r="A458" t="s">
         <v>474</v>
       </c>
@@ -13232,7 +13235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7">
       <c r="A459" t="s">
         <v>475</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7">
       <c r="A460" t="s">
         <v>476</v>
       </c>
@@ -13278,7 +13281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7">
       <c r="A461" t="s">
         <v>477</v>
       </c>
@@ -13301,7 +13304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7">
       <c r="A462" t="s">
         <v>478</v>
       </c>
@@ -13324,7 +13327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7">
       <c r="A463" t="s">
         <v>479</v>
       </c>
@@ -13347,7 +13350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7">
       <c r="A464" t="s">
         <v>480</v>
       </c>
@@ -13370,7 +13373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7">
       <c r="A465" t="s">
         <v>481</v>
       </c>
@@ -13393,7 +13396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7">
       <c r="A466" t="s">
         <v>482</v>
       </c>
@@ -13416,7 +13419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7">
       <c r="A467" t="s">
         <v>483</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7">
       <c r="A468" t="s">
         <v>484</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7">
       <c r="A469" t="s">
         <v>485</v>
       </c>
@@ -13485,7 +13488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7">
       <c r="A470" t="s">
         <v>486</v>
       </c>
@@ -13508,7 +13511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7">
       <c r="A471" t="s">
         <v>487</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7">
       <c r="A472" t="s">
         <v>488</v>
       </c>
@@ -13554,7 +13557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7">
       <c r="A473" t="s">
         <v>489</v>
       </c>
@@ -13577,7 +13580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7">
       <c r="A474" t="s">
         <v>490</v>
       </c>
@@ -13600,7 +13603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7">
       <c r="A475" t="s">
         <v>491</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7">
       <c r="A476" t="s">
         <v>492</v>
       </c>
@@ -13646,7 +13649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7">
       <c r="A477" t="s">
         <v>493</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7">
       <c r="A478" t="s">
         <v>494</v>
       </c>
@@ -13692,7 +13695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7">
       <c r="A479" t="s">
         <v>495</v>
       </c>
@@ -13715,7 +13718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7">
       <c r="A480" t="s">
         <v>496</v>
       </c>
@@ -13738,7 +13741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7">
       <c r="A481" t="s">
         <v>497</v>
       </c>
@@ -13761,7 +13764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7">
       <c r="A482" t="s">
         <v>498</v>
       </c>
@@ -13784,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7">
       <c r="A483" t="s">
         <v>500</v>
       </c>
@@ -13807,7 +13810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7">
       <c r="A484" t="s">
         <v>501</v>
       </c>
@@ -13830,7 +13833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7">
       <c r="A485" t="s">
         <v>502</v>
       </c>
@@ -13853,7 +13856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7">
       <c r="A486" t="s">
         <v>503</v>
       </c>
@@ -13876,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7">
       <c r="A487" t="s">
         <v>504</v>
       </c>
@@ -13899,7 +13902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7">
       <c r="A488" t="s">
         <v>505</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7">
       <c r="A489" t="s">
         <v>506</v>
       </c>
@@ -13945,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7">
       <c r="A490" t="s">
         <v>507</v>
       </c>
@@ -13968,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7">
       <c r="A491" t="s">
         <v>508</v>
       </c>
@@ -13991,7 +13994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7">
       <c r="A492" t="s">
         <v>509</v>
       </c>
@@ -14014,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7">
       <c r="A493" t="s">
         <v>510</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7">
       <c r="A494" t="s">
         <v>511</v>
       </c>
@@ -14060,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7">
       <c r="A495" t="s">
         <v>512</v>
       </c>
@@ -14083,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7">
       <c r="A496" t="s">
         <v>513</v>
       </c>
@@ -14106,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7">
       <c r="A497" t="s">
         <v>514</v>
       </c>
@@ -14129,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7">
       <c r="A498" t="s">
         <v>515</v>
       </c>
@@ -14152,7 +14155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7">
       <c r="A499" t="s">
         <v>516</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7">
       <c r="A500" t="s">
         <v>517</v>
       </c>
@@ -14198,7 +14201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7">
       <c r="A501" t="s">
         <v>518</v>
       </c>
@@ -14221,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7">
       <c r="A502" t="s">
         <v>519</v>
       </c>
@@ -14244,7 +14247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7">
       <c r="A503" t="s">
         <v>520</v>
       </c>
@@ -14267,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7">
       <c r="A504" t="s">
         <v>521</v>
       </c>
@@ -14290,7 +14293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7">
       <c r="A505" t="s">
         <v>522</v>
       </c>
@@ -14313,7 +14316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7">
       <c r="A506" t="s">
         <v>523</v>
       </c>
@@ -14336,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7">
       <c r="A507" t="s">
         <v>524</v>
       </c>
@@ -14359,7 +14362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7">
       <c r="A508" t="s">
         <v>525</v>
       </c>
@@ -14382,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7">
       <c r="A509" t="s">
         <v>526</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7">
       <c r="A510" t="s">
         <v>527</v>
       </c>
@@ -14428,7 +14431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7">
       <c r="A511" t="s">
         <v>528</v>
       </c>
@@ -14451,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7">
       <c r="A512" t="s">
         <v>529</v>
       </c>
@@ -14474,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7">
       <c r="A513" t="s">
         <v>530</v>
       </c>
@@ -14497,7 +14500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7">
       <c r="A514" t="s">
         <v>531</v>
       </c>
@@ -14520,7 +14523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7">
       <c r="A515" t="s">
         <v>532</v>
       </c>
@@ -14543,7 +14546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7">
       <c r="A516" t="s">
         <v>533</v>
       </c>
@@ -14566,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7">
       <c r="A517" t="s">
         <v>534</v>
       </c>
@@ -14589,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7">
       <c r="A518" t="s">
         <v>535</v>
       </c>
@@ -14612,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7">
       <c r="A519" t="s">
         <v>536</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7">
       <c r="A520" t="s">
         <v>537</v>
       </c>
@@ -14658,7 +14661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7">
       <c r="A521" t="s">
         <v>538</v>
       </c>
@@ -14681,7 +14684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7">
       <c r="A522" t="s">
         <v>539</v>
       </c>
@@ -14704,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7">
       <c r="A523" t="s">
         <v>540</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7">
       <c r="A524" t="s">
         <v>541</v>
       </c>
@@ -14750,7 +14753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7">
       <c r="A525" t="s">
         <v>542</v>
       </c>
@@ -14773,7 +14776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7">
       <c r="A526" t="s">
         <v>543</v>
       </c>
@@ -14796,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7">
       <c r="A527" t="s">
         <v>544</v>
       </c>
@@ -14819,7 +14822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7">
       <c r="A528" t="s">
         <v>545</v>
       </c>
@@ -14842,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7">
       <c r="A529" t="s">
         <v>546</v>
       </c>
@@ -14865,7 +14868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7">
       <c r="A530" t="s">
         <v>547</v>
       </c>
@@ -14888,7 +14891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7">
       <c r="A531" t="s">
         <v>548</v>
       </c>
@@ -14911,7 +14914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7">
       <c r="A532" t="s">
         <v>549</v>
       </c>
@@ -14934,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7">
       <c r="A533" t="s">
         <v>550</v>
       </c>
@@ -14957,7 +14960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7">
       <c r="A534" t="s">
         <v>551</v>
       </c>
@@ -14980,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7">
       <c r="A535" t="s">
         <v>552</v>
       </c>
@@ -15003,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7">
       <c r="A536" t="s">
         <v>553</v>
       </c>
@@ -15026,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7">
       <c r="A537" t="s">
         <v>554</v>
       </c>
@@ -15049,7 +15052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7">
       <c r="A538" t="s">
         <v>555</v>
       </c>
@@ -15072,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7">
       <c r="A539" t="s">
         <v>556</v>
       </c>
@@ -15095,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7">
       <c r="A540" t="s">
         <v>557</v>
       </c>
@@ -15118,7 +15121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7">
       <c r="A541" t="s">
         <v>558</v>
       </c>
@@ -15141,7 +15144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7">
       <c r="A542" t="s">
         <v>559</v>
       </c>
@@ -15164,7 +15167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7">
       <c r="A543" t="s">
         <v>560</v>
       </c>
@@ -15187,7 +15190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7">
       <c r="A544" t="s">
         <v>561</v>
       </c>
@@ -15210,7 +15213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7">
       <c r="A545" t="s">
         <v>562</v>
       </c>
@@ -15233,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7">
       <c r="A546" t="s">
         <v>563</v>
       </c>
@@ -15256,7 +15259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7">
       <c r="A547" t="s">
         <v>564</v>
       </c>
@@ -15279,7 +15282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7">
       <c r="A548" t="s">
         <v>565</v>
       </c>
@@ -15302,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7">
       <c r="A549" t="s">
         <v>566</v>
       </c>
@@ -15325,7 +15328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7">
       <c r="A550" t="s">
         <v>567</v>
       </c>
@@ -15362,7 +15365,7 @@
       <selection activeCell="F1" sqref="F1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -15371,7 +15374,7 @@
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15388,7 +15391,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>569</v>
       </c>
@@ -15396,7 +15399,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>571</v>
       </c>
@@ -15407,7 +15410,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>572</v>
       </c>
@@ -15418,7 +15421,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15435,7 +15438,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -15452,7 +15455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15469,7 +15472,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>499</v>
       </c>
@@ -15500,14 +15503,14 @@
       <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15518,7 +15521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>578</v>
       </c>
@@ -15526,7 +15529,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>580</v>
       </c>
@@ -15537,7 +15540,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -15548,7 +15551,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -15573,14 +15576,14 @@
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15599,7 +15602,7 @@
       <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -15609,7 +15612,7 @@
     <col min="6" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15632,7 +15635,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>586</v>
       </c>
@@ -15655,7 +15658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>588</v>
       </c>
@@ -15678,7 +15681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>589</v>
       </c>
@@ -15701,7 +15704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>590</v>
       </c>
@@ -15738,7 +15741,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -15746,7 +15749,7 @@
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15760,7 +15763,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15774,7 +15777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -15788,7 +15791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -15802,7 +15805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>499</v>
       </c>
@@ -15816,7 +15819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -15830,7 +15833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15844,7 +15847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -15858,7 +15861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>499</v>
       </c>
@@ -15886,12 +15889,12 @@
       <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15899,7 +15902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>595</v>
       </c>
@@ -15907,7 +15910,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -15929,7 +15932,7 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -15941,7 +15944,7 @@
     <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15967,7 +15970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15993,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -16016,7 +16019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -16039,7 +16042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -16073,20 +16076,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="182.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16097,7 +16100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>599</v>
       </c>
@@ -16108,7 +16111,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>602</v>
       </c>
@@ -16119,7 +16122,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>605</v>
       </c>
@@ -16130,7 +16133,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>759</v>
       </c>
@@ -16141,701 +16144,709 @@
         <v>760</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>607</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>608</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>610</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>611</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>613</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>614</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>616</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>617</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>619</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>620</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>622</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>623</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>625</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>626</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>628</v>
-      </c>
-      <c r="B13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C13" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>631</v>
       </c>
       <c r="B14" t="s">
         <v>629</v>
       </c>
       <c r="C14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" t="s">
+        <v>629</v>
+      </c>
+      <c r="C15" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>633</v>
-      </c>
-      <c r="B15" t="s">
-        <v>614</v>
-      </c>
-      <c r="C15" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>635</v>
       </c>
       <c r="B16" t="s">
         <v>614</v>
       </c>
       <c r="C16" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B17" t="s">
+        <v>614</v>
+      </c>
+      <c r="C17" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>637</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>638</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>640</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>641</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>643</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>644</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>646</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>623</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>648</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>649</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>651</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>652</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>654</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>655</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>657</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>658</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>660</v>
-      </c>
-      <c r="B25" t="s">
-        <v>661</v>
-      </c>
-      <c r="C25" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>663</v>
       </c>
       <c r="B26" t="s">
         <v>661</v>
       </c>
       <c r="C26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>663</v>
+      </c>
+      <c r="B27" t="s">
+        <v>661</v>
+      </c>
+      <c r="C27" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>665</v>
-      </c>
-      <c r="B27" t="s">
-        <v>655</v>
-      </c>
-      <c r="C27" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>667</v>
       </c>
       <c r="B28" t="s">
         <v>655</v>
       </c>
       <c r="C28" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>667</v>
+      </c>
+      <c r="B29" t="s">
+        <v>655</v>
+      </c>
+      <c r="C29" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>669</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>670</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>672</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>600</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>674</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>675</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>676</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>641</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>678</v>
-      </c>
-      <c r="B33" t="s">
-        <v>629</v>
-      </c>
-      <c r="C33" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>680</v>
       </c>
       <c r="B34" t="s">
         <v>629</v>
       </c>
       <c r="C34" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>680</v>
+      </c>
+      <c r="B35" t="s">
+        <v>629</v>
+      </c>
+      <c r="C35" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>682</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>614</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>684</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>685</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>687</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>614</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>689</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>690</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>692</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>638</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>694</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>695</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>697</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>629</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>698</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>699</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>701</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>629</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>702</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>614</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>703</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>617</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>704</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>655</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>706</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>626</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>709</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>710</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>712</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>608</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>714</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>715</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>717</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>641</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>719</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>623</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>721</v>
-      </c>
-      <c r="B53" t="s">
-        <v>655</v>
-      </c>
-      <c r="C53" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>723</v>
       </c>
       <c r="B54" t="s">
         <v>655</v>
       </c>
       <c r="C54" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>723</v>
+      </c>
+      <c r="B55" t="s">
+        <v>655</v>
+      </c>
+      <c r="C55" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>725</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>726</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>728</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>729</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>731</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>732</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>734</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>708</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>736</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>737</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>739</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>655</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>741</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>742</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>744</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>608</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>746</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>655</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>748</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>708</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>750</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>600</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>752</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>753</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>755</v>
-      </c>
-      <c r="B67" t="s">
-        <v>600</v>
-      </c>
-      <c r="C67" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>757</v>
       </c>
       <c r="B68" t="s">
         <v>600</v>
       </c>
       <c r="C68" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>757</v>
+      </c>
+      <c r="B69" t="s">
+        <v>600</v>
+      </c>
+      <c r="C69" t="s">
         <v>758</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048574" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/doc/examples/forecasting/forecast-method.xlsx
+++ b/doc/examples/forecasting/forecast-method.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\hlahlou\community\doc\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\johan\workspace\frepple-community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDAD96-E2A4-4E1B-A78B-65CA8A8BA5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31EF00-4466-4697-92D8-204FB2EC31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">supplier!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="762">
   <si>
     <t>Name</t>
   </si>
@@ -2325,9 +2325,6 @@
   </si>
   <si>
     <t>2021/11/29</t>
-  </si>
-  <si>
-    <t>forecast.currentdate</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2687,10 +2684,10 @@
   <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -2701,7 +2698,7 @@
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2770,7 +2767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2793,7 +2790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2839,7 +2836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2862,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2885,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2908,7 +2905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2954,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3000,7 +2997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3023,7 +3020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3046,7 +3043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3069,7 +3066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3092,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3161,7 +3158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3184,7 +3181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3207,7 +3204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3253,7 +3250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3276,7 +3273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3322,7 +3319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3345,7 +3342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3368,7 +3365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3391,7 +3388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3414,7 +3411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3437,7 +3434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3506,7 +3503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3529,7 +3526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3552,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3575,7 +3572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3621,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3644,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3713,7 +3710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3759,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3805,7 +3802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3828,7 +3825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3874,7 +3871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3897,7 +3894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3943,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3966,7 +3963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3989,7 +3986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4012,7 +4009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4058,7 +4055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4081,7 +4078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4104,7 +4101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4127,7 +4124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4150,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4173,7 +4170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4196,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4219,7 +4216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4265,7 +4262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4288,7 +4285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4311,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4334,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4357,7 +4354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4380,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4449,7 +4446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4495,7 +4492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4518,7 +4515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4541,7 +4538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4564,7 +4561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4587,7 +4584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4633,7 +4630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4656,7 +4653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4679,7 +4676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4702,7 +4699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4748,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4794,7 +4791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4817,7 +4814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4840,7 +4837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4886,7 +4883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4932,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -4955,7 +4952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4978,7 +4975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5024,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5047,7 +5044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5070,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5093,7 +5090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5116,7 +5113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5139,7 +5136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5162,7 +5159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5185,7 +5182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5208,7 +5205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5231,7 +5228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5254,7 +5251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5277,7 +5274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5300,7 +5297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5323,7 +5320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5346,7 +5343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5369,7 +5366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5392,7 +5389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5415,7 +5412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5438,7 +5435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5461,7 +5458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5484,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5507,7 +5504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -5553,7 +5550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5576,7 +5573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -5599,7 +5596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5622,7 +5619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5645,7 +5642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -5668,7 +5665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5714,7 +5711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -5737,7 +5734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -5760,7 +5757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -5783,7 +5780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -5829,7 +5826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -5852,7 +5849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -5898,7 +5895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -5921,7 +5918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -5944,7 +5941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -5967,7 +5964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -5990,7 +5987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -6013,7 +6010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6036,7 +6033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -6082,7 +6079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -6105,7 +6102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -6128,7 +6125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -6151,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -6174,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -6197,7 +6194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -6220,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -6266,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -6289,7 +6286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -6335,7 +6332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -6404,7 +6401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -6450,7 +6447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -6473,7 +6470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -6496,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6519,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6542,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6565,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -6611,7 +6608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -6634,7 +6631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -6657,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -6680,7 +6677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -6703,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6726,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6749,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6772,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6795,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6818,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6841,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6864,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -6887,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -6910,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>198</v>
       </c>
@@ -6933,7 +6930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>199</v>
       </c>
@@ -6956,7 +6953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -6979,7 +6976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>201</v>
       </c>
@@ -7002,7 +6999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -7025,7 +7022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>203</v>
       </c>
@@ -7048,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -7071,7 +7068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -7094,7 +7091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>206</v>
       </c>
@@ -7117,7 +7114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -7140,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>208</v>
       </c>
@@ -7163,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -7186,7 +7183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>210</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>211</v>
       </c>
@@ -7232,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -7255,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -7278,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -7301,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>215</v>
       </c>
@@ -7324,7 +7321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -7347,7 +7344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -7370,7 +7367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>218</v>
       </c>
@@ -7393,7 +7390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>219</v>
       </c>
@@ -7416,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>220</v>
       </c>
@@ -7439,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>221</v>
       </c>
@@ -7462,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>222</v>
       </c>
@@ -7485,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>223</v>
       </c>
@@ -7508,7 +7505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>224</v>
       </c>
@@ -7531,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>225</v>
       </c>
@@ -7554,7 +7551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -7577,7 +7574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>227</v>
       </c>
@@ -7600,7 +7597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>228</v>
       </c>
@@ -7623,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>229</v>
       </c>
@@ -7646,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>230</v>
       </c>
@@ -7669,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>231</v>
       </c>
@@ -7692,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>232</v>
       </c>
@@ -7715,7 +7712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>233</v>
       </c>
@@ -7738,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>234</v>
       </c>
@@ -7761,7 +7758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>235</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>236</v>
       </c>
@@ -7807,7 +7804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>237</v>
       </c>
@@ -7830,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -7853,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -7876,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -7899,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>241</v>
       </c>
@@ -7922,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>242</v>
       </c>
@@ -7945,7 +7942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>243</v>
       </c>
@@ -7968,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>244</v>
       </c>
@@ -7991,7 +7988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>245</v>
       </c>
@@ -8014,7 +8011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>246</v>
       </c>
@@ -8037,7 +8034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>247</v>
       </c>
@@ -8060,7 +8057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>248</v>
       </c>
@@ -8083,7 +8080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -8106,7 +8103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>250</v>
       </c>
@@ -8129,7 +8126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>251</v>
       </c>
@@ -8152,7 +8149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>252</v>
       </c>
@@ -8175,7 +8172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>253</v>
       </c>
@@ -8198,7 +8195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>254</v>
       </c>
@@ -8221,7 +8218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>255</v>
       </c>
@@ -8244,7 +8241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>256</v>
       </c>
@@ -8267,7 +8264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>257</v>
       </c>
@@ -8290,7 +8287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -8313,7 +8310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>259</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>260</v>
       </c>
@@ -8359,7 +8356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>261</v>
       </c>
@@ -8382,7 +8379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>262</v>
       </c>
@@ -8405,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>263</v>
       </c>
@@ -8428,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -8451,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>265</v>
       </c>
@@ -8474,7 +8471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>266</v>
       </c>
@@ -8497,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -8520,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>268</v>
       </c>
@@ -8543,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>270</v>
       </c>
@@ -8589,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>271</v>
       </c>
@@ -8612,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>272</v>
       </c>
@@ -8635,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>273</v>
       </c>
@@ -8658,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>274</v>
       </c>
@@ -8681,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -8704,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>276</v>
       </c>
@@ -8727,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>277</v>
       </c>
@@ -8750,7 +8747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -8773,7 +8770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -8796,7 +8793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>280</v>
       </c>
@@ -8819,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>281</v>
       </c>
@@ -8842,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>282</v>
       </c>
@@ -8865,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>283</v>
       </c>
@@ -8888,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>284</v>
       </c>
@@ -8911,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>285</v>
       </c>
@@ -8934,7 +8931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>286</v>
       </c>
@@ -8957,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>287</v>
       </c>
@@ -8980,7 +8977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>288</v>
       </c>
@@ -9003,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -9026,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>290</v>
       </c>
@@ -9049,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>291</v>
       </c>
@@ -9072,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>292</v>
       </c>
@@ -9095,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -9118,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>294</v>
       </c>
@@ -9141,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>295</v>
       </c>
@@ -9164,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -9187,7 +9184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -9210,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>298</v>
       </c>
@@ -9233,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>300</v>
       </c>
@@ -9279,7 +9276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>301</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -9325,7 +9322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>303</v>
       </c>
@@ -9348,7 +9345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -9371,7 +9368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>305</v>
       </c>
@@ -9394,7 +9391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>306</v>
       </c>
@@ -9417,7 +9414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>307</v>
       </c>
@@ -9440,7 +9437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>308</v>
       </c>
@@ -9463,7 +9460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>309</v>
       </c>
@@ -9486,7 +9483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>310</v>
       </c>
@@ -9509,7 +9506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>311</v>
       </c>
@@ -9532,7 +9529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>312</v>
       </c>
@@ -9555,7 +9552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>313</v>
       </c>
@@ -9578,7 +9575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>314</v>
       </c>
@@ -9601,7 +9598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>315</v>
       </c>
@@ -9624,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>316</v>
       </c>
@@ -9647,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>317</v>
       </c>
@@ -9670,7 +9667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>318</v>
       </c>
@@ -9693,7 +9690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>319</v>
       </c>
@@ -9716,7 +9713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>320</v>
       </c>
@@ -9739,7 +9736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -9762,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>322</v>
       </c>
@@ -9785,7 +9782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>323</v>
       </c>
@@ -9808,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>324</v>
       </c>
@@ -9831,7 +9828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>325</v>
       </c>
@@ -9854,7 +9851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>326</v>
       </c>
@@ -9877,7 +9874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>327</v>
       </c>
@@ -9900,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>328</v>
       </c>
@@ -9923,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>329</v>
       </c>
@@ -9946,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -9969,7 +9966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>331</v>
       </c>
@@ -9992,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>332</v>
       </c>
@@ -10015,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>333</v>
       </c>
@@ -10038,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>334</v>
       </c>
@@ -10061,7 +10058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>335</v>
       </c>
@@ -10084,7 +10081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>336</v>
       </c>
@@ -10107,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>339</v>
       </c>
@@ -10130,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>340</v>
       </c>
@@ -10153,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>341</v>
       </c>
@@ -10176,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>342</v>
       </c>
@@ -10199,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>343</v>
       </c>
@@ -10222,7 +10219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>344</v>
       </c>
@@ -10245,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>345</v>
       </c>
@@ -10268,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>346</v>
       </c>
@@ -10291,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>347</v>
       </c>
@@ -10314,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>348</v>
       </c>
@@ -10337,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>349</v>
       </c>
@@ -10360,7 +10357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>350</v>
       </c>
@@ -10383,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>351</v>
       </c>
@@ -10406,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>352</v>
       </c>
@@ -10429,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>353</v>
       </c>
@@ -10452,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>354</v>
       </c>
@@ -10475,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>355</v>
       </c>
@@ -10498,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>356</v>
       </c>
@@ -10521,7 +10518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>357</v>
       </c>
@@ -10544,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>358</v>
       </c>
@@ -10567,7 +10564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>359</v>
       </c>
@@ -10590,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>360</v>
       </c>
@@ -10613,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>361</v>
       </c>
@@ -10636,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>362</v>
       </c>
@@ -10659,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>363</v>
       </c>
@@ -10682,7 +10679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>364</v>
       </c>
@@ -10705,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>365</v>
       </c>
@@ -10728,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>366</v>
       </c>
@@ -10751,7 +10748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>367</v>
       </c>
@@ -10774,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>368</v>
       </c>
@@ -10797,7 +10794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>369</v>
       </c>
@@ -10820,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>370</v>
       </c>
@@ -10843,7 +10840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>371</v>
       </c>
@@ -10866,7 +10863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>372</v>
       </c>
@@ -10889,7 +10886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>373</v>
       </c>
@@ -10912,7 +10909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>374</v>
       </c>
@@ -10935,7 +10932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>375</v>
       </c>
@@ -10958,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>376</v>
       </c>
@@ -10981,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -11004,7 +11001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -11027,7 +11024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>379</v>
       </c>
@@ -11050,7 +11047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>380</v>
       </c>
@@ -11073,7 +11070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>381</v>
       </c>
@@ -11096,7 +11093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>382</v>
       </c>
@@ -11119,7 +11116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>383</v>
       </c>
@@ -11142,7 +11139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>384</v>
       </c>
@@ -11165,7 +11162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>385</v>
       </c>
@@ -11188,7 +11185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>386</v>
       </c>
@@ -11211,7 +11208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>387</v>
       </c>
@@ -11234,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>388</v>
       </c>
@@ -11257,7 +11254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>389</v>
       </c>
@@ -11280,7 +11277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>390</v>
       </c>
@@ -11303,7 +11300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>391</v>
       </c>
@@ -11326,7 +11323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>392</v>
       </c>
@@ -11349,7 +11346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>393</v>
       </c>
@@ -11372,7 +11369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>394</v>
       </c>
@@ -11395,7 +11392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>395</v>
       </c>
@@ -11418,7 +11415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>396</v>
       </c>
@@ -11441,7 +11438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>397</v>
       </c>
@@ -11464,7 +11461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>398</v>
       </c>
@@ -11487,7 +11484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>399</v>
       </c>
@@ -11510,7 +11507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>400</v>
       </c>
@@ -11533,7 +11530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>401</v>
       </c>
@@ -11556,7 +11553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>402</v>
       </c>
@@ -11579,7 +11576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>403</v>
       </c>
@@ -11602,7 +11599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>404</v>
       </c>
@@ -11625,7 +11622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>405</v>
       </c>
@@ -11648,7 +11645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>406</v>
       </c>
@@ -11671,7 +11668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>407</v>
       </c>
@@ -11694,7 +11691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>408</v>
       </c>
@@ -11717,7 +11714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>409</v>
       </c>
@@ -11740,7 +11737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>410</v>
       </c>
@@ -11763,7 +11760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>411</v>
       </c>
@@ -11786,7 +11783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>412</v>
       </c>
@@ -11809,7 +11806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>413</v>
       </c>
@@ -11832,7 +11829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>414</v>
       </c>
@@ -11855,7 +11852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>415</v>
       </c>
@@ -11878,7 +11875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>416</v>
       </c>
@@ -11901,7 +11898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>417</v>
       </c>
@@ -11924,7 +11921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>418</v>
       </c>
@@ -11947,7 +11944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>419</v>
       </c>
@@ -11970,7 +11967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>420</v>
       </c>
@@ -11993,7 +11990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>421</v>
       </c>
@@ -12016,7 +12013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>422</v>
       </c>
@@ -12039,7 +12036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>423</v>
       </c>
@@ -12062,7 +12059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>424</v>
       </c>
@@ -12085,7 +12082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>425</v>
       </c>
@@ -12108,7 +12105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>426</v>
       </c>
@@ -12131,7 +12128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>427</v>
       </c>
@@ -12154,7 +12151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>428</v>
       </c>
@@ -12177,7 +12174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>429</v>
       </c>
@@ -12200,7 +12197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>430</v>
       </c>
@@ -12223,7 +12220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>431</v>
       </c>
@@ -12246,7 +12243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>432</v>
       </c>
@@ -12269,7 +12266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>433</v>
       </c>
@@ -12292,7 +12289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>434</v>
       </c>
@@ -12315,7 +12312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>435</v>
       </c>
@@ -12338,7 +12335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>436</v>
       </c>
@@ -12361,7 +12358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>437</v>
       </c>
@@ -12384,7 +12381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>438</v>
       </c>
@@ -12407,7 +12404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>439</v>
       </c>
@@ -12430,7 +12427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>440</v>
       </c>
@@ -12453,7 +12450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>441</v>
       </c>
@@ -12476,7 +12473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>442</v>
       </c>
@@ -12499,7 +12496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>443</v>
       </c>
@@ -12522,7 +12519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>444</v>
       </c>
@@ -12545,7 +12542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>445</v>
       </c>
@@ -12568,7 +12565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>446</v>
       </c>
@@ -12591,7 +12588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>447</v>
       </c>
@@ -12614,7 +12611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>448</v>
       </c>
@@ -12637,7 +12634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>449</v>
       </c>
@@ -12660,7 +12657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>450</v>
       </c>
@@ -12683,7 +12680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>451</v>
       </c>
@@ -12706,7 +12703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>452</v>
       </c>
@@ -12729,7 +12726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>453</v>
       </c>
@@ -12752,7 +12749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>454</v>
       </c>
@@ -12775,7 +12772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>455</v>
       </c>
@@ -12798,7 +12795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>456</v>
       </c>
@@ -12821,7 +12818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>457</v>
       </c>
@@ -12844,7 +12841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>458</v>
       </c>
@@ -12867,7 +12864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>459</v>
       </c>
@@ -12890,7 +12887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>460</v>
       </c>
@@ -12913,7 +12910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>461</v>
       </c>
@@ -12936,7 +12933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>462</v>
       </c>
@@ -12959,7 +12956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>463</v>
       </c>
@@ -12982,7 +12979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>464</v>
       </c>
@@ -13005,7 +13002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>465</v>
       </c>
@@ -13028,7 +13025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>466</v>
       </c>
@@ -13051,7 +13048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>467</v>
       </c>
@@ -13074,7 +13071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>468</v>
       </c>
@@ -13097,7 +13094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>469</v>
       </c>
@@ -13120,7 +13117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>470</v>
       </c>
@@ -13143,7 +13140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>471</v>
       </c>
@@ -13166,7 +13163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>472</v>
       </c>
@@ -13189,7 +13186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>473</v>
       </c>
@@ -13212,7 +13209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>474</v>
       </c>
@@ -13235,7 +13232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>475</v>
       </c>
@@ -13258,7 +13255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>476</v>
       </c>
@@ -13281,7 +13278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>477</v>
       </c>
@@ -13304,7 +13301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>478</v>
       </c>
@@ -13327,7 +13324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>479</v>
       </c>
@@ -13350,7 +13347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>480</v>
       </c>
@@ -13373,7 +13370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>481</v>
       </c>
@@ -13396,7 +13393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>482</v>
       </c>
@@ -13419,7 +13416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>483</v>
       </c>
@@ -13442,7 +13439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>484</v>
       </c>
@@ -13465,7 +13462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>485</v>
       </c>
@@ -13488,7 +13485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>486</v>
       </c>
@@ -13511,7 +13508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>487</v>
       </c>
@@ -13534,7 +13531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>488</v>
       </c>
@@ -13557,7 +13554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>489</v>
       </c>
@@ -13580,7 +13577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>490</v>
       </c>
@@ -13603,7 +13600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>491</v>
       </c>
@@ -13626,7 +13623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>492</v>
       </c>
@@ -13649,7 +13646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>493</v>
       </c>
@@ -13672,7 +13669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>494</v>
       </c>
@@ -13695,7 +13692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>495</v>
       </c>
@@ -13718,7 +13715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>496</v>
       </c>
@@ -13741,7 +13738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>497</v>
       </c>
@@ -13764,7 +13761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>498</v>
       </c>
@@ -13787,7 +13784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>500</v>
       </c>
@@ -13810,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>501</v>
       </c>
@@ -13833,7 +13830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>502</v>
       </c>
@@ -13856,7 +13853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>503</v>
       </c>
@@ -13879,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>504</v>
       </c>
@@ -13902,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>505</v>
       </c>
@@ -13925,7 +13922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>506</v>
       </c>
@@ -13948,7 +13945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>507</v>
       </c>
@@ -13971,7 +13968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>508</v>
       </c>
@@ -13994,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>509</v>
       </c>
@@ -14017,7 +14014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>510</v>
       </c>
@@ -14040,7 +14037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>511</v>
       </c>
@@ -14063,7 +14060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>512</v>
       </c>
@@ -14086,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>513</v>
       </c>
@@ -14109,7 +14106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>514</v>
       </c>
@@ -14132,7 +14129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>515</v>
       </c>
@@ -14155,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>516</v>
       </c>
@@ -14178,7 +14175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>517</v>
       </c>
@@ -14201,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>518</v>
       </c>
@@ -14224,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>519</v>
       </c>
@@ -14247,7 +14244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>520</v>
       </c>
@@ -14270,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>521</v>
       </c>
@@ -14293,7 +14290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>522</v>
       </c>
@@ -14316,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>523</v>
       </c>
@@ -14339,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>524</v>
       </c>
@@ -14362,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>525</v>
       </c>
@@ -14385,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>526</v>
       </c>
@@ -14408,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>527</v>
       </c>
@@ -14431,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>528</v>
       </c>
@@ -14454,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>529</v>
       </c>
@@ -14477,7 +14474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>530</v>
       </c>
@@ -14500,7 +14497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>531</v>
       </c>
@@ -14523,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>532</v>
       </c>
@@ -14546,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>533</v>
       </c>
@@ -14569,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>534</v>
       </c>
@@ -14592,7 +14589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>535</v>
       </c>
@@ -14615,7 +14612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>536</v>
       </c>
@@ -14638,7 +14635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>537</v>
       </c>
@@ -14661,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>538</v>
       </c>
@@ -14684,7 +14681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>539</v>
       </c>
@@ -14707,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>540</v>
       </c>
@@ -14730,7 +14727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>541</v>
       </c>
@@ -14753,7 +14750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>542</v>
       </c>
@@ -14776,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>543</v>
       </c>
@@ -14799,7 +14796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>544</v>
       </c>
@@ -14822,7 +14819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>545</v>
       </c>
@@ -14845,7 +14842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>546</v>
       </c>
@@ -14868,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>547</v>
       </c>
@@ -14891,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>548</v>
       </c>
@@ -14914,7 +14911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>549</v>
       </c>
@@ -14937,7 +14934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>550</v>
       </c>
@@ -14960,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>551</v>
       </c>
@@ -14983,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>552</v>
       </c>
@@ -15006,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>553</v>
       </c>
@@ -15029,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>554</v>
       </c>
@@ -15052,7 +15049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>555</v>
       </c>
@@ -15075,7 +15072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>556</v>
       </c>
@@ -15098,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>557</v>
       </c>
@@ -15121,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>558</v>
       </c>
@@ -15144,7 +15141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>559</v>
       </c>
@@ -15167,7 +15164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>560</v>
       </c>
@@ -15190,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>561</v>
       </c>
@@ -15213,7 +15210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>562</v>
       </c>
@@ -15236,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>563</v>
       </c>
@@ -15259,7 +15256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>564</v>
       </c>
@@ -15282,7 +15279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>565</v>
       </c>
@@ -15305,7 +15302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>566</v>
       </c>
@@ -15328,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>567</v>
       </c>
@@ -15365,7 +15362,7 @@
       <selection activeCell="F1" sqref="F1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -15374,7 +15371,7 @@
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15391,7 +15388,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>569</v>
       </c>
@@ -15399,7 +15396,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>571</v>
       </c>
@@ -15410,7 +15407,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>572</v>
       </c>
@@ -15421,7 +15418,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15438,7 +15435,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -15455,7 +15452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15472,7 +15469,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>499</v>
       </c>
@@ -15503,14 +15500,14 @@
       <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15521,7 +15518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>578</v>
       </c>
@@ -15529,7 +15526,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>580</v>
       </c>
@@ -15540,7 +15537,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -15551,7 +15548,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -15576,14 +15573,14 @@
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15602,7 +15599,7 @@
       <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -15612,7 +15609,7 @@
     <col min="6" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15635,7 +15632,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>586</v>
       </c>
@@ -15658,7 +15655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>588</v>
       </c>
@@ -15681,7 +15678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>589</v>
       </c>
@@ -15704,7 +15701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>590</v>
       </c>
@@ -15741,7 +15738,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -15749,7 +15746,7 @@
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15763,7 +15760,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15777,7 +15774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -15791,7 +15788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -15805,7 +15802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>499</v>
       </c>
@@ -15819,7 +15816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -15833,7 +15830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15847,7 +15844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -15861,7 +15858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>499</v>
       </c>
@@ -15889,12 +15886,12 @@
       <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15902,7 +15899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>595</v>
       </c>
@@ -15910,7 +15907,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -15932,7 +15929,7 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -15944,7 +15941,7 @@
     <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15970,7 +15967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15996,7 +15993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -16019,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -16042,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -16076,20 +16073,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="182.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16100,7 +16097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>599</v>
       </c>
@@ -16111,7 +16108,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>602</v>
       </c>
@@ -16122,7 +16119,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>605</v>
       </c>
@@ -16133,7 +16130,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>759</v>
       </c>
@@ -16144,709 +16141,701 @@
         <v>760</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>762</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>607</v>
+      </c>
+      <c r="B6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B8" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B9" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C9" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B10" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C10" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B11" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B13" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C13" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B14" t="s">
         <v>629</v>
       </c>
       <c r="C14" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B15" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B16" t="s">
         <v>614</v>
       </c>
       <c r="C16" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B17" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="C17" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B18" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C18" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B19" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C19" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B20" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C20" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B21" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="C21" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B22" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B23" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C23" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B24" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C24" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B25" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B26" t="s">
         <v>661</v>
       </c>
       <c r="C26" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B27" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C27" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B28" t="s">
         <v>655</v>
       </c>
       <c r="C28" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B29" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B30" t="s">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="C30" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B31" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="C31" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B32" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="C32" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B33" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C33" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B34" t="s">
         <v>629</v>
       </c>
       <c r="C34" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B35" t="s">
+        <v>614</v>
+      </c>
+      <c r="C35" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>684</v>
+      </c>
+      <c r="B36" t="s">
+        <v>685</v>
+      </c>
+      <c r="C36" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>687</v>
+      </c>
+      <c r="B37" t="s">
+        <v>614</v>
+      </c>
+      <c r="C37" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>689</v>
+      </c>
+      <c r="B38" t="s">
+        <v>690</v>
+      </c>
+      <c r="C38" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>692</v>
+      </c>
+      <c r="B39" t="s">
+        <v>638</v>
+      </c>
+      <c r="C39" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>694</v>
+      </c>
+      <c r="B40" t="s">
+        <v>695</v>
+      </c>
+      <c r="C40" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>697</v>
+      </c>
+      <c r="B41" t="s">
         <v>629</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>682</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>698</v>
+      </c>
+      <c r="B42" t="s">
+        <v>699</v>
+      </c>
+      <c r="C42" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>701</v>
+      </c>
+      <c r="B43" t="s">
+        <v>629</v>
+      </c>
+      <c r="C43" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>702</v>
+      </c>
+      <c r="B44" t="s">
         <v>614</v>
       </c>
-      <c r="C36" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>684</v>
-      </c>
-      <c r="B37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>687</v>
-      </c>
-      <c r="B38" t="s">
-        <v>614</v>
-      </c>
-      <c r="C38" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>689</v>
-      </c>
-      <c r="B39" t="s">
-        <v>690</v>
-      </c>
-      <c r="C39" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>692</v>
-      </c>
-      <c r="B40" t="s">
-        <v>638</v>
-      </c>
-      <c r="C40" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>694</v>
-      </c>
-      <c r="B41" t="s">
-        <v>695</v>
-      </c>
-      <c r="C41" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>697</v>
-      </c>
-      <c r="B42" t="s">
-        <v>629</v>
-      </c>
-      <c r="C42" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>698</v>
-      </c>
-      <c r="B43" t="s">
-        <v>699</v>
-      </c>
-      <c r="C43" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>701</v>
-      </c>
-      <c r="B44" t="s">
-        <v>629</v>
-      </c>
       <c r="C44" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B45" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C45" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B46" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
       <c r="C46" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B47" t="s">
+        <v>626</v>
+      </c>
+      <c r="C47" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>709</v>
+      </c>
+      <c r="B48" t="s">
+        <v>710</v>
+      </c>
+      <c r="C48" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>712</v>
+      </c>
+      <c r="B49" t="s">
+        <v>608</v>
+      </c>
+      <c r="C49" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>714</v>
+      </c>
+      <c r="B50" t="s">
+        <v>715</v>
+      </c>
+      <c r="C50" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>717</v>
+      </c>
+      <c r="B51" t="s">
+        <v>641</v>
+      </c>
+      <c r="C51" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>719</v>
+      </c>
+      <c r="B52" t="s">
+        <v>623</v>
+      </c>
+      <c r="C52" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>721</v>
+      </c>
+      <c r="B53" t="s">
         <v>655</v>
       </c>
-      <c r="C47" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>706</v>
-      </c>
-      <c r="B48" t="s">
-        <v>626</v>
-      </c>
-      <c r="C48" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>709</v>
-      </c>
-      <c r="B49" t="s">
-        <v>710</v>
-      </c>
-      <c r="C49" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>712</v>
-      </c>
-      <c r="B50" t="s">
-        <v>608</v>
-      </c>
-      <c r="C50" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>714</v>
-      </c>
-      <c r="B51" t="s">
-        <v>715</v>
-      </c>
-      <c r="C51" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>717</v>
-      </c>
-      <c r="B52" t="s">
-        <v>641</v>
-      </c>
-      <c r="C52" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>719</v>
-      </c>
-      <c r="B53" t="s">
-        <v>623</v>
-      </c>
       <c r="C53" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B54" t="s">
         <v>655</v>
       </c>
       <c r="C54" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B55" t="s">
+        <v>726</v>
+      </c>
+      <c r="C55" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>728</v>
+      </c>
+      <c r="B56" t="s">
+        <v>729</v>
+      </c>
+      <c r="C56" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>731</v>
+      </c>
+      <c r="B57" t="s">
+        <v>732</v>
+      </c>
+      <c r="C57" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>734</v>
+      </c>
+      <c r="B58" t="s">
+        <v>708</v>
+      </c>
+      <c r="C58" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>736</v>
+      </c>
+      <c r="B59" t="s">
+        <v>737</v>
+      </c>
+      <c r="C59" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>739</v>
+      </c>
+      <c r="B60" t="s">
         <v>655</v>
       </c>
-      <c r="C55" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>725</v>
-      </c>
-      <c r="B56" t="s">
-        <v>726</v>
-      </c>
-      <c r="C56" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>728</v>
-      </c>
-      <c r="B57" t="s">
-        <v>729</v>
-      </c>
-      <c r="C57" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>731</v>
-      </c>
-      <c r="B58" t="s">
-        <v>732</v>
-      </c>
-      <c r="C58" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>734</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C60" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>741</v>
+      </c>
+      <c r="B61" t="s">
+        <v>742</v>
+      </c>
+      <c r="C61" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>744</v>
+      </c>
+      <c r="B62" t="s">
+        <v>608</v>
+      </c>
+      <c r="C62" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>746</v>
+      </c>
+      <c r="B63" t="s">
+        <v>655</v>
+      </c>
+      <c r="C63" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>748</v>
+      </c>
+      <c r="B64" t="s">
         <v>708</v>
       </c>
-      <c r="C59" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>736</v>
-      </c>
-      <c r="B60" t="s">
-        <v>737</v>
-      </c>
-      <c r="C60" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>739</v>
-      </c>
-      <c r="B61" t="s">
-        <v>655</v>
-      </c>
-      <c r="C61" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>741</v>
-      </c>
-      <c r="B62" t="s">
-        <v>742</v>
-      </c>
-      <c r="C62" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>744</v>
-      </c>
-      <c r="B63" t="s">
-        <v>608</v>
-      </c>
-      <c r="C63" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>746</v>
-      </c>
-      <c r="B64" t="s">
-        <v>655</v>
-      </c>
       <c r="C64" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B65" t="s">
-        <v>708</v>
+        <v>600</v>
       </c>
       <c r="C65" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B66" t="s">
+        <v>753</v>
+      </c>
+      <c r="C66" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>755</v>
+      </c>
+      <c r="B67" t="s">
         <v>600</v>
       </c>
-      <c r="C66" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>752</v>
-      </c>
-      <c r="B67" t="s">
-        <v>753</v>
-      </c>
       <c r="C67" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B68" t="s">
         <v>600</v>
       </c>
       <c r="C68" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>757</v>
-      </c>
-      <c r="B69" t="s">
-        <v>600</v>
-      </c>
-      <c r="C69" t="s">
         <v>758</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:C1048574" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/doc/examples/forecasting/forecast-method.xlsx
+++ b/doc/examples/forecasting/forecast-method.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\johan\workspace\frepple-community\doc\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\jdetaeye\workspace\frepple-community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31EF00-4466-4697-92D8-204FB2EC31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B535567C-DCC1-4165-9491-BE77F2393D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="757" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="supplier" sheetId="7" r:id="rId7"/>
     <sheet name="item supplier" sheetId="8" r:id="rId8"/>
     <sheet name="parameter" sheetId="9" r:id="rId9"/>
+    <sheet name="measure" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">customer!$A:$A</definedName>
@@ -30,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'item distribution'!$A:$D</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'item supplier'!$A:$H</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">location!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">measure!$A:$M</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">parameter!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">supplier!$A:$B</definedName>
@@ -38,8 +40,74 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{475E8E2E-B95F-439B-864B-A5E4B529A234}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: aggregate, local, computed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BD87D90E-4E17-42DD-B458-075D5EC444AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: edit, view, hide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{747CC6D3-1697-4820-BD02-C27C161629DA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: edit, view, hide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9E6DA5AC-4B7F-43B3-AC92-E800F96E641A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: number, currency</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="823">
   <si>
     <t>Name</t>
   </si>
@@ -1838,15 +1906,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>allowsplits</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: true</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -2325,6 +2387,195 @@
   </si>
   <si>
     <t>2021/11/29</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mode In Past Periods</t>
+  </si>
+  <si>
+    <t>Mode In Future Periods</t>
+  </si>
+  <si>
+    <t>Initially Hidden</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Compute Expression</t>
+  </si>
+  <si>
+    <t>Update Expression</t>
+  </si>
+  <si>
+    <t>Override Measure</t>
+  </si>
+  <si>
+    <t>forecastbaselinevalue</t>
+  </si>
+  <si>
+    <t>forecast baseline value</t>
+  </si>
+  <si>
+    <t>computed</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastbaselinevalue, forecastbaseline * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastbaseline := newvalue /cost, forecastbaselinevalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastconsumedvalue</t>
+  </si>
+  <si>
+    <t>forecast consumed value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastconsumedvalue, forecastconsumed * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastconsumed := newvalue / cost, forecastconsumedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastnetvalue</t>
+  </si>
+  <si>
+    <t>forecast net value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastnetvalue, forecastnet * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastnet := newvalue /cost, forecastnetvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastoverridevalue</t>
+  </si>
+  <si>
+    <t>forecast override value</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastoverridevalue, if(forecastoverride == -1, -1, forecastoverride * cost))</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastoverride := if(newvalue == -1, -1, newvalue / cost), forecastoverridevalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastplannedvalue</t>
+  </si>
+  <si>
+    <t>planned forecast value</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastplannedvalue, forecastplanned * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastplanned := newvalue /cost, forecastplannedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecasttotal</t>
+  </si>
+  <si>
+    <t>total forecast</t>
+  </si>
+  <si>
+    <t>This row is what we'll plan supply for</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>if(forecastoverride == -1, forecastbaseline, forecastoverride)</t>
+  </si>
+  <si>
+    <t>forecasttotalvalue</t>
+  </si>
+  <si>
+    <t>forecast total value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecasttotalvalue, forecasttotal * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecasttotal:= newvalue /cost, forecasttotalvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>nodata</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t>Indicates gaps in the sales history</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ordersadjustmentvalue</t>
+  </si>
+  <si>
+    <t>orders adjustment value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersadjustmentvalue, ordersadjustment * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersadjustment := newvalue /cost, ordersadjustmentvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>ordersopenvalue</t>
+  </si>
+  <si>
+    <t>orders open value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersopenvalue, ordersopen * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersopen := newvalue /cost, ordersopenvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>ordersplannedvalue</t>
+  </si>
+  <si>
+    <t>planned orders value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersplannedvalue, ordersplanned * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersplanned := newvalue /cost, ordersplannedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>orderstotalvalue</t>
+  </si>
+  <si>
+    <t>orders total value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, orderstotalvalue, orderstotal * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, orderstotal := newvalue /cost, orderstotalvalue := newvalue)</t>
   </si>
 </sst>
 </file>
@@ -2687,18 +2938,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2721,7 +2972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +3018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2790,7 +3041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2813,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2836,7 +3087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2859,7 +3110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2882,7 +3133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2905,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2928,7 +3179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2951,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2974,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2997,7 +3248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3020,7 +3271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3089,7 +3340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3112,7 +3363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3135,7 +3386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3158,7 +3409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3181,7 +3432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3227,7 +3478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3250,7 +3501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3273,7 +3524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3296,7 +3547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3319,7 +3570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3342,7 +3593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3365,7 +3616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3388,7 +3639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3411,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3434,7 +3685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3457,7 +3708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3480,7 +3731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3503,7 +3754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3526,7 +3777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3549,7 +3800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3572,7 +3823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3595,7 +3846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3618,7 +3869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3641,7 +3892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3664,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3687,7 +3938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3710,7 +3961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3733,7 +3984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3756,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3779,7 +4030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3802,7 +4053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3825,7 +4076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3848,7 +4099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3871,7 +4122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3894,7 +4145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3917,7 +4168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3940,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3963,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3986,7 +4237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4009,7 +4260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4032,7 +4283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4055,7 +4306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4078,7 +4329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4101,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4124,7 +4375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4147,7 +4398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4170,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4193,7 +4444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4216,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4239,7 +4490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4262,7 +4513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4285,7 +4536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4308,7 +4559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4331,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4354,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4377,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4400,7 +4651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4423,7 +4674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4446,7 +4697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4469,7 +4720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4492,7 +4743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4515,7 +4766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4538,7 +4789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4561,7 +4812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4584,7 +4835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4607,7 +4858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4630,7 +4881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4653,7 +4904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4676,7 +4927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4699,7 +4950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4722,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4745,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4768,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4791,7 +5042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4814,7 +5065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4837,7 +5088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4860,7 +5111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4883,7 +5134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4906,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4929,7 +5180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -4952,7 +5203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4975,7 +5226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -4998,7 +5249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5021,7 +5272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5044,7 +5295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5067,7 +5318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5090,7 +5341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5113,7 +5364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5136,7 +5387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5159,7 +5410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5182,7 +5433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5205,7 +5456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5228,7 +5479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5251,7 +5502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5274,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5297,7 +5548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5320,7 +5571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5343,7 +5594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5366,7 +5617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5389,7 +5640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5412,7 +5663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5435,7 +5686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5458,7 +5709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5481,7 +5732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5504,7 +5755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -5527,7 +5778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -5550,7 +5801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5573,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -5596,7 +5847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5619,7 +5870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5642,7 +5893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -5665,7 +5916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -5688,7 +5939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5711,7 +5962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -5734,7 +5985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -5757,7 +6008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -5780,7 +6031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -5803,7 +6054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -5826,7 +6077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -5849,7 +6100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -5872,7 +6123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -5895,7 +6146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -5918,7 +6169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -5941,7 +6192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -5964,7 +6215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -5987,7 +6238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -6010,7 +6261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6033,7 +6284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -6056,7 +6307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -6079,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -6102,7 +6353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -6125,7 +6376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -6148,7 +6399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -6171,7 +6422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -6194,7 +6445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -6217,7 +6468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -6240,7 +6491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -6263,7 +6514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -6286,7 +6537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -6309,7 +6560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -6332,7 +6583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -6355,7 +6606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -6378,7 +6629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -6401,7 +6652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -6424,7 +6675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -6447,7 +6698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -6470,7 +6721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -6493,7 +6744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -6516,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -6539,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -6562,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -6585,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -6608,7 +6859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -6631,7 +6882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -6654,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -6677,7 +6928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -6700,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -6723,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -6746,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -6769,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -6792,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -6815,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -6838,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -6861,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -6884,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -6907,7 +7158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>198</v>
       </c>
@@ -6930,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>199</v>
       </c>
@@ -6953,7 +7204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -6976,7 +7227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>201</v>
       </c>
@@ -6999,7 +7250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -7022,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>203</v>
       </c>
@@ -7045,7 +7296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -7068,7 +7319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -7091,7 +7342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>206</v>
       </c>
@@ -7114,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -7137,7 +7388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>208</v>
       </c>
@@ -7160,7 +7411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -7183,7 +7434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>210</v>
       </c>
@@ -7206,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>211</v>
       </c>
@@ -7229,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -7252,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -7275,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -7298,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>215</v>
       </c>
@@ -7321,7 +7572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -7344,7 +7595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -7367,7 +7618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>218</v>
       </c>
@@ -7390,7 +7641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>219</v>
       </c>
@@ -7413,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>220</v>
       </c>
@@ -7436,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>221</v>
       </c>
@@ -7459,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>222</v>
       </c>
@@ -7482,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>223</v>
       </c>
@@ -7505,7 +7756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>224</v>
       </c>
@@ -7528,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>225</v>
       </c>
@@ -7551,7 +7802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -7574,7 +7825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>227</v>
       </c>
@@ -7597,7 +7848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>228</v>
       </c>
@@ -7620,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>229</v>
       </c>
@@ -7643,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>230</v>
       </c>
@@ -7666,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>231</v>
       </c>
@@ -7689,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>232</v>
       </c>
@@ -7712,7 +7963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>233</v>
       </c>
@@ -7735,7 +7986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>234</v>
       </c>
@@ -7758,7 +8009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>235</v>
       </c>
@@ -7781,7 +8032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>236</v>
       </c>
@@ -7804,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>237</v>
       </c>
@@ -7827,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -7850,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -7873,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -7896,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>241</v>
       </c>
@@ -7919,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>242</v>
       </c>
@@ -7942,7 +8193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>243</v>
       </c>
@@ -7965,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>244</v>
       </c>
@@ -7988,7 +8239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>245</v>
       </c>
@@ -8011,7 +8262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>246</v>
       </c>
@@ -8034,7 +8285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>247</v>
       </c>
@@ -8057,7 +8308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>248</v>
       </c>
@@ -8080,7 +8331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -8103,7 +8354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>250</v>
       </c>
@@ -8126,7 +8377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>251</v>
       </c>
@@ -8149,7 +8400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>252</v>
       </c>
@@ -8172,7 +8423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>253</v>
       </c>
@@ -8195,7 +8446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>254</v>
       </c>
@@ -8218,7 +8469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>255</v>
       </c>
@@ -8241,7 +8492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>256</v>
       </c>
@@ -8264,7 +8515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>257</v>
       </c>
@@ -8287,7 +8538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -8310,7 +8561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>259</v>
       </c>
@@ -8333,7 +8584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>260</v>
       </c>
@@ -8356,7 +8607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>261</v>
       </c>
@@ -8379,7 +8630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>262</v>
       </c>
@@ -8402,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>263</v>
       </c>
@@ -8425,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>264</v>
       </c>
@@ -8448,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>265</v>
       </c>
@@ -8471,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>266</v>
       </c>
@@ -8494,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -8517,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>268</v>
       </c>
@@ -8540,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -8563,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>270</v>
       </c>
@@ -8586,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>271</v>
       </c>
@@ -8609,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>272</v>
       </c>
@@ -8632,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>273</v>
       </c>
@@ -8655,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>274</v>
       </c>
@@ -8678,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -8701,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>276</v>
       </c>
@@ -8724,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>277</v>
       </c>
@@ -8747,7 +8998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -8770,7 +9021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -8793,7 +9044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>280</v>
       </c>
@@ -8816,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>281</v>
       </c>
@@ -8839,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>282</v>
       </c>
@@ -8862,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>283</v>
       </c>
@@ -8885,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>284</v>
       </c>
@@ -8908,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>285</v>
       </c>
@@ -8931,7 +9182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>286</v>
       </c>
@@ -8954,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>287</v>
       </c>
@@ -8977,7 +9228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>288</v>
       </c>
@@ -9000,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -9023,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>290</v>
       </c>
@@ -9046,7 +9297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>291</v>
       </c>
@@ -9069,7 +9320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>292</v>
       </c>
@@ -9092,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -9115,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>294</v>
       </c>
@@ -9138,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>295</v>
       </c>
@@ -9161,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -9184,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -9207,7 +9458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>298</v>
       </c>
@@ -9230,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -9253,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>300</v>
       </c>
@@ -9276,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>301</v>
       </c>
@@ -9299,7 +9550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>302</v>
       </c>
@@ -9322,7 +9573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>303</v>
       </c>
@@ -9345,7 +9596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -9368,7 +9619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>305</v>
       </c>
@@ -9391,7 +9642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>306</v>
       </c>
@@ -9414,7 +9665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>307</v>
       </c>
@@ -9437,7 +9688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>308</v>
       </c>
@@ -9460,7 +9711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>309</v>
       </c>
@@ -9483,7 +9734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>310</v>
       </c>
@@ -9506,7 +9757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>311</v>
       </c>
@@ -9529,7 +9780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>312</v>
       </c>
@@ -9552,7 +9803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>313</v>
       </c>
@@ -9575,7 +9826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>314</v>
       </c>
@@ -9598,7 +9849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>315</v>
       </c>
@@ -9621,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>316</v>
       </c>
@@ -9644,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>317</v>
       </c>
@@ -9667,7 +9918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>318</v>
       </c>
@@ -9690,7 +9941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>319</v>
       </c>
@@ -9713,7 +9964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>320</v>
       </c>
@@ -9736,7 +9987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>321</v>
       </c>
@@ -9759,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>322</v>
       </c>
@@ -9782,7 +10033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>323</v>
       </c>
@@ -9805,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>324</v>
       </c>
@@ -9828,7 +10079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>325</v>
       </c>
@@ -9851,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>326</v>
       </c>
@@ -9874,7 +10125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>327</v>
       </c>
@@ -9897,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>328</v>
       </c>
@@ -9920,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>329</v>
       </c>
@@ -9943,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -9966,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>331</v>
       </c>
@@ -9989,7 +10240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>332</v>
       </c>
@@ -10012,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>333</v>
       </c>
@@ -10035,7 +10286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>334</v>
       </c>
@@ -10058,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>335</v>
       </c>
@@ -10081,7 +10332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>336</v>
       </c>
@@ -10104,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>339</v>
       </c>
@@ -10127,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>340</v>
       </c>
@@ -10150,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>341</v>
       </c>
@@ -10173,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>342</v>
       </c>
@@ -10196,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>343</v>
       </c>
@@ -10219,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>344</v>
       </c>
@@ -10242,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>345</v>
       </c>
@@ -10265,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>346</v>
       </c>
@@ -10288,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>347</v>
       </c>
@@ -10311,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>348</v>
       </c>
@@ -10334,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>349</v>
       </c>
@@ -10357,7 +10608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>350</v>
       </c>
@@ -10380,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>351</v>
       </c>
@@ -10403,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>352</v>
       </c>
@@ -10426,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>353</v>
       </c>
@@ -10449,7 +10700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>354</v>
       </c>
@@ -10472,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>355</v>
       </c>
@@ -10495,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>356</v>
       </c>
@@ -10518,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>357</v>
       </c>
@@ -10541,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>358</v>
       </c>
@@ -10564,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>359</v>
       </c>
@@ -10587,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>360</v>
       </c>
@@ -10610,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>361</v>
       </c>
@@ -10633,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>362</v>
       </c>
@@ -10656,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>363</v>
       </c>
@@ -10679,7 +10930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>364</v>
       </c>
@@ -10702,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>365</v>
       </c>
@@ -10725,7 +10976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>366</v>
       </c>
@@ -10748,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>367</v>
       </c>
@@ -10771,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>368</v>
       </c>
@@ -10794,7 +11045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>369</v>
       </c>
@@ -10817,7 +11068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>370</v>
       </c>
@@ -10840,7 +11091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>371</v>
       </c>
@@ -10863,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>372</v>
       </c>
@@ -10886,7 +11137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>373</v>
       </c>
@@ -10909,7 +11160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>374</v>
       </c>
@@ -10932,7 +11183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>375</v>
       </c>
@@ -10955,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>376</v>
       </c>
@@ -10978,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -11001,7 +11252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -11024,7 +11275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>379</v>
       </c>
@@ -11047,7 +11298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>380</v>
       </c>
@@ -11070,7 +11321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>381</v>
       </c>
@@ -11093,7 +11344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>382</v>
       </c>
@@ -11116,7 +11367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>383</v>
       </c>
@@ -11139,7 +11390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>384</v>
       </c>
@@ -11162,7 +11413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>385</v>
       </c>
@@ -11185,7 +11436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>386</v>
       </c>
@@ -11208,7 +11459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>387</v>
       </c>
@@ -11231,7 +11482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>388</v>
       </c>
@@ -11254,7 +11505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>389</v>
       </c>
@@ -11277,7 +11528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>390</v>
       </c>
@@ -11300,7 +11551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>391</v>
       </c>
@@ -11323,7 +11574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>392</v>
       </c>
@@ -11346,7 +11597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>393</v>
       </c>
@@ -11369,7 +11620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>394</v>
       </c>
@@ -11392,7 +11643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>395</v>
       </c>
@@ -11415,7 +11666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>396</v>
       </c>
@@ -11438,7 +11689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>397</v>
       </c>
@@ -11461,7 +11712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>398</v>
       </c>
@@ -11484,7 +11735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>399</v>
       </c>
@@ -11507,7 +11758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>400</v>
       </c>
@@ -11530,7 +11781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>401</v>
       </c>
@@ -11553,7 +11804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>402</v>
       </c>
@@ -11576,7 +11827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>403</v>
       </c>
@@ -11599,7 +11850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>404</v>
       </c>
@@ -11622,7 +11873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>405</v>
       </c>
@@ -11645,7 +11896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>406</v>
       </c>
@@ -11668,7 +11919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>407</v>
       </c>
@@ -11691,7 +11942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>408</v>
       </c>
@@ -11714,7 +11965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>409</v>
       </c>
@@ -11737,7 +11988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>410</v>
       </c>
@@ -11760,7 +12011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>411</v>
       </c>
@@ -11783,7 +12034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>412</v>
       </c>
@@ -11806,7 +12057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>413</v>
       </c>
@@ -11829,7 +12080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>414</v>
       </c>
@@ -11852,7 +12103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>415</v>
       </c>
@@ -11875,7 +12126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>416</v>
       </c>
@@ -11898,7 +12149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>417</v>
       </c>
@@ -11921,7 +12172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>418</v>
       </c>
@@ -11944,7 +12195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>419</v>
       </c>
@@ -11967,7 +12218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>420</v>
       </c>
@@ -11990,7 +12241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>421</v>
       </c>
@@ -12013,7 +12264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>422</v>
       </c>
@@ -12036,7 +12287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>423</v>
       </c>
@@ -12059,7 +12310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>424</v>
       </c>
@@ -12082,7 +12333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>425</v>
       </c>
@@ -12105,7 +12356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>426</v>
       </c>
@@ -12128,7 +12379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>427</v>
       </c>
@@ -12151,7 +12402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>428</v>
       </c>
@@ -12174,7 +12425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>429</v>
       </c>
@@ -12197,7 +12448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>430</v>
       </c>
@@ -12220,7 +12471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>431</v>
       </c>
@@ -12243,7 +12494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>432</v>
       </c>
@@ -12266,7 +12517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>433</v>
       </c>
@@ -12289,7 +12540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>434</v>
       </c>
@@ -12312,7 +12563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>435</v>
       </c>
@@ -12335,7 +12586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>436</v>
       </c>
@@ -12358,7 +12609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>437</v>
       </c>
@@ -12381,7 +12632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>438</v>
       </c>
@@ -12404,7 +12655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>439</v>
       </c>
@@ -12427,7 +12678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>440</v>
       </c>
@@ -12450,7 +12701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>441</v>
       </c>
@@ -12473,7 +12724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>442</v>
       </c>
@@ -12496,7 +12747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>443</v>
       </c>
@@ -12519,7 +12770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>444</v>
       </c>
@@ -12542,7 +12793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>445</v>
       </c>
@@ -12565,7 +12816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>446</v>
       </c>
@@ -12588,7 +12839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>447</v>
       </c>
@@ -12611,7 +12862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>448</v>
       </c>
@@ -12634,7 +12885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>449</v>
       </c>
@@ -12657,7 +12908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>450</v>
       </c>
@@ -12680,7 +12931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>451</v>
       </c>
@@ -12703,7 +12954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>452</v>
       </c>
@@ -12726,7 +12977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>453</v>
       </c>
@@ -12749,7 +13000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>454</v>
       </c>
@@ -12772,7 +13023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>455</v>
       </c>
@@ -12795,7 +13046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>456</v>
       </c>
@@ -12818,7 +13069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>457</v>
       </c>
@@ -12841,7 +13092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>458</v>
       </c>
@@ -12864,7 +13115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>459</v>
       </c>
@@ -12887,7 +13138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>460</v>
       </c>
@@ -12910,7 +13161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>461</v>
       </c>
@@ -12933,7 +13184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>462</v>
       </c>
@@ -12956,7 +13207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>463</v>
       </c>
@@ -12979,7 +13230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>464</v>
       </c>
@@ -13002,7 +13253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>465</v>
       </c>
@@ -13025,7 +13276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>466</v>
       </c>
@@ -13048,7 +13299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>467</v>
       </c>
@@ -13071,7 +13322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>468</v>
       </c>
@@ -13094,7 +13345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>469</v>
       </c>
@@ -13117,7 +13368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>470</v>
       </c>
@@ -13140,7 +13391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>471</v>
       </c>
@@ -13163,7 +13414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>472</v>
       </c>
@@ -13186,7 +13437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>473</v>
       </c>
@@ -13209,7 +13460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>474</v>
       </c>
@@ -13232,7 +13483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>475</v>
       </c>
@@ -13255,7 +13506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>476</v>
       </c>
@@ -13278,7 +13529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>477</v>
       </c>
@@ -13301,7 +13552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>478</v>
       </c>
@@ -13324,7 +13575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>479</v>
       </c>
@@ -13347,7 +13598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>480</v>
       </c>
@@ -13370,7 +13621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>481</v>
       </c>
@@ -13393,7 +13644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>482</v>
       </c>
@@ -13416,7 +13667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>483</v>
       </c>
@@ -13439,7 +13690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>484</v>
       </c>
@@ -13462,7 +13713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>485</v>
       </c>
@@ -13485,7 +13736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>486</v>
       </c>
@@ -13508,7 +13759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>487</v>
       </c>
@@ -13531,7 +13782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>488</v>
       </c>
@@ -13554,7 +13805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>489</v>
       </c>
@@ -13577,7 +13828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>490</v>
       </c>
@@ -13600,7 +13851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>491</v>
       </c>
@@ -13623,7 +13874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>492</v>
       </c>
@@ -13646,7 +13897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>493</v>
       </c>
@@ -13669,7 +13920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>494</v>
       </c>
@@ -13692,7 +13943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>495</v>
       </c>
@@ -13715,7 +13966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>496</v>
       </c>
@@ -13738,7 +13989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>497</v>
       </c>
@@ -13761,7 +14012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>498</v>
       </c>
@@ -13784,7 +14035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>500</v>
       </c>
@@ -13807,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>501</v>
       </c>
@@ -13830,7 +14081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>502</v>
       </c>
@@ -13853,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>503</v>
       </c>
@@ -13876,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>504</v>
       </c>
@@ -13899,7 +14150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>505</v>
       </c>
@@ -13922,7 +14173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>506</v>
       </c>
@@ -13945,7 +14196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>507</v>
       </c>
@@ -13968,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>508</v>
       </c>
@@ -13991,7 +14242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>509</v>
       </c>
@@ -14014,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>510</v>
       </c>
@@ -14037,7 +14288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>511</v>
       </c>
@@ -14060,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>512</v>
       </c>
@@ -14083,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>513</v>
       </c>
@@ -14106,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>514</v>
       </c>
@@ -14129,7 +14380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>515</v>
       </c>
@@ -14152,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>516</v>
       </c>
@@ -14175,7 +14426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>517</v>
       </c>
@@ -14198,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>518</v>
       </c>
@@ -14221,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>519</v>
       </c>
@@ -14244,7 +14495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>520</v>
       </c>
@@ -14267,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>521</v>
       </c>
@@ -14290,7 +14541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>522</v>
       </c>
@@ -14313,7 +14564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>523</v>
       </c>
@@ -14336,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>524</v>
       </c>
@@ -14359,7 +14610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>525</v>
       </c>
@@ -14382,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>526</v>
       </c>
@@ -14405,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>527</v>
       </c>
@@ -14428,7 +14679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>528</v>
       </c>
@@ -14451,7 +14702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>529</v>
       </c>
@@ -14474,7 +14725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>530</v>
       </c>
@@ -14497,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>531</v>
       </c>
@@ -14520,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>532</v>
       </c>
@@ -14543,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>533</v>
       </c>
@@ -14566,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>534</v>
       </c>
@@ -14589,7 +14840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>535</v>
       </c>
@@ -14612,7 +14863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>536</v>
       </c>
@@ -14635,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>537</v>
       </c>
@@ -14658,7 +14909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>538</v>
       </c>
@@ -14681,7 +14932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>539</v>
       </c>
@@ -14704,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>540</v>
       </c>
@@ -14727,7 +14978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>541</v>
       </c>
@@ -14750,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>542</v>
       </c>
@@ -14773,7 +15024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>543</v>
       </c>
@@ -14796,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>544</v>
       </c>
@@ -14819,7 +15070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>545</v>
       </c>
@@ -14842,7 +15093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>546</v>
       </c>
@@ -14865,7 +15116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>547</v>
       </c>
@@ -14888,7 +15139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>548</v>
       </c>
@@ -14911,7 +15162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>549</v>
       </c>
@@ -14934,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>550</v>
       </c>
@@ -14957,7 +15208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>551</v>
       </c>
@@ -14980,7 +15231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>552</v>
       </c>
@@ -15003,7 +15254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>553</v>
       </c>
@@ -15026,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>554</v>
       </c>
@@ -15049,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>555</v>
       </c>
@@ -15072,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>556</v>
       </c>
@@ -15095,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>557</v>
       </c>
@@ -15118,7 +15369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>558</v>
       </c>
@@ -15141,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>559</v>
       </c>
@@ -15164,7 +15415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>560</v>
       </c>
@@ -15187,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>561</v>
       </c>
@@ -15210,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>562</v>
       </c>
@@ -15233,7 +15484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>563</v>
       </c>
@@ -15256,7 +15507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>564</v>
       </c>
@@ -15279,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>565</v>
       </c>
@@ -15302,7 +15553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>566</v>
       </c>
@@ -15325,7 +15576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>567</v>
       </c>
@@ -15351,6 +15602,451 @@
   </sheetData>
   <autoFilter ref="A1:G1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87E9B3-F41F-4824-A07C-84834131B726}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>600</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>774</v>
+      </c>
+      <c r="L2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>778</v>
+      </c>
+      <c r="L3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F4" t="s">
+        <v>773</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>600</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>782</v>
+      </c>
+      <c r="L4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F5" t="s">
+        <v>786</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>600</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>787</v>
+      </c>
+      <c r="L5" t="s">
+        <v>788</v>
+      </c>
+      <c r="M5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" t="s">
+        <v>773</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>600</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>792</v>
+      </c>
+      <c r="L6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D7" t="s">
+        <v>772</v>
+      </c>
+      <c r="E7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F7" t="s">
+        <v>773</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>797</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B8" t="s">
+        <v>800</v>
+      </c>
+      <c r="D8" t="s">
+        <v>772</v>
+      </c>
+      <c r="E8" t="s">
+        <v>773</v>
+      </c>
+      <c r="F8" t="s">
+        <v>773</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>600</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>801</v>
+      </c>
+      <c r="L8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B9" t="s">
+        <v>804</v>
+      </c>
+      <c r="C9" t="s">
+        <v>805</v>
+      </c>
+      <c r="D9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E9" t="s">
+        <v>786</v>
+      </c>
+      <c r="F9" t="s">
+        <v>786</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>797</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" t="s">
+        <v>808</v>
+      </c>
+      <c r="D10" t="s">
+        <v>772</v>
+      </c>
+      <c r="E10" t="s">
+        <v>786</v>
+      </c>
+      <c r="F10" t="s">
+        <v>791</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>600</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>809</v>
+      </c>
+      <c r="L10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>811</v>
+      </c>
+      <c r="B11" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11" t="s">
+        <v>772</v>
+      </c>
+      <c r="E11" t="s">
+        <v>773</v>
+      </c>
+      <c r="F11" t="s">
+        <v>773</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>600</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>813</v>
+      </c>
+      <c r="L11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>815</v>
+      </c>
+      <c r="B12" t="s">
+        <v>816</v>
+      </c>
+      <c r="D12" t="s">
+        <v>772</v>
+      </c>
+      <c r="E12" t="s">
+        <v>791</v>
+      </c>
+      <c r="F12" t="s">
+        <v>773</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>600</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>817</v>
+      </c>
+      <c r="L12" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>819</v>
+      </c>
+      <c r="B13" t="s">
+        <v>820</v>
+      </c>
+      <c r="D13" t="s">
+        <v>772</v>
+      </c>
+      <c r="E13" t="s">
+        <v>773</v>
+      </c>
+      <c r="F13" t="s">
+        <v>773</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>600</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>821</v>
+      </c>
+      <c r="L13" t="s">
+        <v>822</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15362,16 +16058,16 @@
       <selection activeCell="F1" sqref="F1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15388,7 +16084,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>569</v>
       </c>
@@ -15396,7 +16092,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>571</v>
       </c>
@@ -15407,7 +16103,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>572</v>
       </c>
@@ -15418,7 +16114,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15435,7 +16131,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -15452,7 +16148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15469,7 +16165,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>499</v>
       </c>
@@ -15500,14 +16196,14 @@
       <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15518,7 +16214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>578</v>
       </c>
@@ -15526,7 +16222,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>580</v>
       </c>
@@ -15537,7 +16233,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -15548,7 +16244,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -15573,14 +16269,14 @@
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15599,17 +16295,17 @@
       <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15632,7 +16328,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>586</v>
       </c>
@@ -15655,7 +16351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>588</v>
       </c>
@@ -15678,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>589</v>
       </c>
@@ -15701,7 +16397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>590</v>
       </c>
@@ -15738,15 +16434,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15760,7 +16456,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15774,7 +16470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -15788,7 +16484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -15802,7 +16498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>499</v>
       </c>
@@ -15816,7 +16512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -15830,7 +16526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -15844,7 +16540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -15858,7 +16554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>499</v>
       </c>
@@ -15886,12 +16582,12 @@
       <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15899,7 +16595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>595</v>
       </c>
@@ -15907,7 +16603,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -15929,19 +16625,19 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -15967,7 +16663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15993,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -16016,7 +16712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -16039,7 +16735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -16073,20 +16769,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="182.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16097,745 +16793,734 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B3" t="s">
         <v>603</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="C3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>605</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>759</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>600</v>
-      </c>
       <c r="C5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C10" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B13" t="s">
         <v>627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>628</v>
-      </c>
-      <c r="B13" t="s">
-        <v>629</v>
       </c>
       <c r="C13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>631</v>
       </c>
       <c r="B14" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="C14" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>633</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C15" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>635</v>
       </c>
       <c r="B16" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="C16" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B17" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C17" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B18" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C18" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B19" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="C19" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>646</v>
       </c>
       <c r="B20" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="C20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B22" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C23" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C24" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>661</v>
+      </c>
+      <c r="B25" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>660</v>
-      </c>
-      <c r="B25" t="s">
-        <v>661</v>
       </c>
       <c r="C25" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>663</v>
       </c>
       <c r="B26" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C26" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>665</v>
       </c>
       <c r="B27" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C27" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>667</v>
       </c>
       <c r="B28" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="C28" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B29" t="s">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="C29" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>672</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="C30" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>674</v>
       </c>
       <c r="B31" t="s">
+        <v>639</v>
+      </c>
+      <c r="C31" t="s">
         <v>675</v>
       </c>
-      <c r="C31" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>676</v>
       </c>
       <c r="B32" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="C32" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>678</v>
       </c>
       <c r="B33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C33" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>680</v>
       </c>
       <c r="B34" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="C34" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>682</v>
       </c>
       <c r="B35" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="C35" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B36" t="s">
-        <v>685</v>
+        <v>612</v>
       </c>
       <c r="C36" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>687</v>
       </c>
       <c r="B37" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="C37" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B38" t="s">
-        <v>690</v>
+        <v>636</v>
       </c>
       <c r="C38" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>692</v>
       </c>
       <c r="B39" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="C39" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B40" t="s">
-        <v>695</v>
+        <v>627</v>
       </c>
       <c r="C40" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>697</v>
       </c>
-      <c r="B41" t="s">
-        <v>629</v>
-      </c>
       <c r="C41" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B42" t="s">
-        <v>699</v>
+        <v>627</v>
       </c>
       <c r="C42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>612</v>
+      </c>
+      <c r="C43" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>701</v>
       </c>
-      <c r="B43" t="s">
-        <v>629</v>
-      </c>
-      <c r="C43" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>615</v>
+      </c>
+      <c r="C44" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>702</v>
       </c>
-      <c r="B44" t="s">
-        <v>614</v>
-      </c>
-      <c r="C44" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>653</v>
+      </c>
+      <c r="C45" t="s">
         <v>703</v>
       </c>
-      <c r="B45" t="s">
-        <v>617</v>
-      </c>
-      <c r="C45" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>704</v>
       </c>
       <c r="B46" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="C46" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B47" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="C47" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B48" t="s">
-        <v>710</v>
+        <v>606</v>
       </c>
       <c r="C48" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>712</v>
       </c>
       <c r="B49" t="s">
-        <v>608</v>
+        <v>713</v>
       </c>
       <c r="C49" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B50" t="s">
-        <v>715</v>
+        <v>639</v>
       </c>
       <c r="C50" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>717</v>
       </c>
       <c r="B51" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="C51" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>719</v>
       </c>
       <c r="B52" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="C52" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>721</v>
       </c>
       <c r="B53" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C53" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>723</v>
       </c>
       <c r="B54" t="s">
-        <v>655</v>
+        <v>724</v>
       </c>
       <c r="C54" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B55" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C55" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B56" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C56" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B57" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="C57" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>734</v>
       </c>
       <c r="B58" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="C58" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B59" t="s">
-        <v>737</v>
+        <v>653</v>
       </c>
       <c r="C59" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>739</v>
       </c>
       <c r="B60" t="s">
-        <v>655</v>
+        <v>740</v>
       </c>
       <c r="C60" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B61" t="s">
-        <v>742</v>
+        <v>606</v>
       </c>
       <c r="C61" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>744</v>
       </c>
       <c r="B62" t="s">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="C62" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>746</v>
       </c>
       <c r="B63" t="s">
-        <v>655</v>
+        <v>706</v>
       </c>
       <c r="C63" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>748</v>
       </c>
       <c r="B64" t="s">
-        <v>708</v>
+        <v>599</v>
       </c>
       <c r="C64" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>750</v>
       </c>
       <c r="B65" t="s">
-        <v>600</v>
+        <v>751</v>
       </c>
       <c r="C65" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B66" t="s">
-        <v>753</v>
+        <v>599</v>
       </c>
       <c r="C66" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>755</v>
       </c>
       <c r="B67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C67" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>757</v>
-      </c>
-      <c r="B68" t="s">
-        <v>600</v>
-      </c>
-      <c r="C68" t="s">
-        <v>758</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048574" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:C1048573" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>